--- a/books/Clinician Version.xlsx
+++ b/books/Clinician Version.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kam/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB12B8-549C-AD45-AE8B-811F63D23227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED04EC8-EA63-3040-8225-2F2E0FCF4E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1320" windowWidth="23480" windowHeight="15960" activeTab="2" xr2:uid="{CBC197E1-ED29-1642-8C74-A2B128E6CCD2}"/>
+    <workbookView xWindow="13860" yWindow="460" windowWidth="23480" windowHeight="15960" xr2:uid="{CBC197E1-ED29-1642-8C74-A2B128E6CCD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Naming Semantic Feature Chart" sheetId="3" r:id="rId1"/>
     <sheet name="Generative Naming" sheetId="1" r:id="rId2"/>
     <sheet name="Hospital Safety 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Conversation Starter " sheetId="5" r:id="rId4"/>
+    <sheet name="Picture Description" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="606">
   <si>
     <t>Office Supplies</t>
   </si>
@@ -504,1212 +506,603 @@
     <t>Use a chair</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FAirplane.aud.mp3?alt=media&amp;token=1b5d5394-5b36-473e-b892-2001594bc9d8</t>
-  </si>
-  <si>
     <t>Airplane</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FApple.aud.mp3?alt=media&amp;token=8c9cb6e3-0799-4b5a-87be-7c15a7a6903c</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FAvocado.aud.mp3?alt=media&amp;token=d1047295-81b0-4dc9-9dc8-2dc5e5b9855f</t>
-  </si>
-  <si>
     <t>Avocado</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBacon.aud.mp3?alt=media&amp;token=009ab118-4818-454e-897d-127874484922</t>
-  </si>
-  <si>
     <t>Bacon</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBagel.aud.mp3?alt=media&amp;token=23e2a1ff-5699-465d-9930-061404411f24</t>
-  </si>
-  <si>
     <t>Bagel</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBanana.aud.mp3?alt=media&amp;token=462d7163-babd-4b40-a3d4-f2c10fb0b6a9</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBasket.aud.mp3?alt=media&amp;token=db3f0da0-e77c-48cb-8dd9-4a4d9911d772</t>
-  </si>
-  <si>
     <t>Basket</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBattery.aud.mp3?alt=media&amp;token=2e9a0a44-f93a-4dbb-a9f5-07ee468a9bdb</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBeans.aud.mp3?alt=media&amp;token=2d72f234-c3df-4caa-9422-f6f015f530b0</t>
-  </si>
-  <si>
     <t>Beans</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBlender.aud.mp3?alt=media&amp;token=73e59ec8-2c1e-4e19-9cca-fd681056670f</t>
-  </si>
-  <si>
     <t>Blender</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBowl.aud.mp3?alt=media&amp;token=00df93fd-19ee-4d92-8b46-fa81f6368b7d</t>
-  </si>
-  <si>
     <t>Bowl</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBread.aud.mp3?alt=media&amp;token=86d33088-18ed-4b45-a314-75a367843bb4</t>
-  </si>
-  <si>
     <t>Bread</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBroccoli.aud.mp3?alt=media&amp;token=413a1a34-c701-4419-b152-525b24382891</t>
-  </si>
-  <si>
     <t>Broccoli</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBroom.aud.mp3?alt=media&amp;token=784ab629-7ec1-4c31-b029-8a747443fc51</t>
-  </si>
-  <si>
     <t>Broom</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBus.aud.mp3?alt=media&amp;token=e3cd2d48-a58f-4cfa-b711-181b90d22c68</t>
-  </si>
-  <si>
     <t>Bus</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FButter.aud.mp3?alt=media&amp;token=fe293a84-633a-41d2-b7dc-1b734a150ef9</t>
-  </si>
-  <si>
     <t>Butter</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCake.aud.mp3?alt=media&amp;token=84403500-0517-406c-b967-37213848d20d</t>
-  </si>
-  <si>
     <t>Cake</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCalendar.aud.mp3?alt=media&amp;token=930cecf1-4972-43f6-978b-42346a4fc0b5</t>
-  </si>
-  <si>
     <t>Calendar</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCan.aud.mp3?alt=media&amp;token=8053a8b5-baa4-45d5-ad1e-70bbd5f38508</t>
-  </si>
-  <si>
     <t>Can</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCanopener.aud.mp3?alt=media&amp;token=d8a85438-b5af-4ec7-8f06-b659976a560f</t>
-  </si>
-  <si>
     <t>Can opener</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCar.aud.mp3?alt=media&amp;token=3009f8b9-4403-4eed-9d7c-e9724981b48f</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCarrots.aud.mp3?alt=media&amp;token=a06facb0-bd58-45e7-858c-29f8eb8d320d</t>
-  </si>
-  <si>
     <t>Carrots</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCereal.aud.mp3?alt=media&amp;token=ab240aa1-512b-478d-997f-05eee4f56b9c</t>
-  </si>
-  <si>
     <t>Cereal</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FChair.aud.mp3?alt=media&amp;token=933dae1a-f1db-4064-a69d-92d9b3877c52</t>
-  </si>
-  <si>
     <t>Chair</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCheese.aud.mp3?alt=media&amp;token=ddad4ade-f494-48ee-a5bf-e53279329534</t>
-  </si>
-  <si>
     <t>Cheese</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FChicken.aud.mp3?alt=media&amp;token=3ba2d94b-d9b4-4322-b43a-9390b648eef6</t>
-  </si>
-  <si>
     <t>Chicken</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FClothesPin.aud.mp3?alt=media&amp;token=96fef14a-1b99-4aa8-89a0-fbfb17d3bba0</t>
-  </si>
-  <si>
     <t>Clothespins</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCoffee.aud.mp3?alt=media&amp;token=7b4a11bf-180e-4f72-b674-c2bda5e88a5f</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCoffeemaker.aud.mp3?alt=media&amp;token=f8eba07d-6d50-4c22-a2a2-99c9744c2a76</t>
-  </si>
-  <si>
     <t>Coffee maker</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCookie.aud.mp3?alt=media&amp;token=4d12aaa7-aa01-476b-a1bb-15b8cf7ba7b5</t>
-  </si>
-  <si>
     <t>Cookie</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCorn.aud.mp3?alt=media&amp;token=c7b71142-bb65-4705-b0e4-e1866688a273</t>
-  </si>
-  <si>
     <t>Corn</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCrackers.aud.mp3?alt=media&amp;token=9a755b7c-5f5c-41bc-93fa-00a1aa2d2783</t>
-  </si>
-  <si>
     <t>Crackers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCup.aud.mp3?alt=media&amp;token=1a9ad6f9-9c50-436f-87f5-21ab6cb8089c</t>
-  </si>
-  <si>
     <t>Cup</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDetergent.aud.mp3?alt=media&amp;token=5a7087dd-a2ce-4ead-93ac-49f2c8a9aa09</t>
-  </si>
-  <si>
     <t>Detergent</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDishsoap.aud.mp3?alt=media&amp;token=49f98db9-400e-4a11-85a9-c9afc6c7e3c1</t>
-  </si>
-  <si>
     <t>Dish soap</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDonut.aud.mp3?alt=media&amp;token=b0680550-d47a-48bd-a589-0db3bf74d3e3</t>
-  </si>
-  <si>
     <t>Donut</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FEggs.aud.mp3?alt=media&amp;token=af5ced2c-7b0d-4d3e-8603-49cc9c9a8f54</t>
-  </si>
-  <si>
     <t>Eggs</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFire.aud.mp3?alt=media&amp;token=1bdf5283-9141-4c4f-be83-67071fa38ed2</t>
-  </si>
-  <si>
     <t>Fire</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFlashlight.aud.mp3?alt=media&amp;token=3072561d-d370-4b6b-b755-19235bc26e89</t>
-  </si>
-  <si>
     <t>Flashlight</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFork.aud.mp3?alt=media&amp;token=87797a81-b165-4eb2-9011-9c80832fe9aa</t>
-  </si>
-  <si>
     <t>Fork</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGarbagecan.aud.mp3?alt=media&amp;token=78e61251-2ca7-4838-878c-554052157476</t>
-  </si>
-  <si>
     <t>Garbage can</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGarlic.aud.mp3?alt=media&amp;token=cced54e9-ec84-4845-962a-74add3dd16dd</t>
-  </si>
-  <si>
     <t>Garlic</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGrapes.aud.mp3?alt=media&amp;token=0f6f944d-919b-4521-8dd1-75cd3bc45385</t>
-  </si>
-  <si>
     <t>Grapes</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGum.aud.mp3?alt=media&amp;token=f9def243-56ce-4e3b-bd5d-b9d37b830fde</t>
-  </si>
-  <si>
     <t>Gum</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHamburger.aud.mp3?alt=media&amp;token=edd0e54a-a132-4820-b8d9-1973f7a817ca</t>
-  </si>
-  <si>
     <t>Hamburger</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHammer.aud.mp3?alt=media&amp;token=971b783f-58c3-411b-bb1c-0733b1f28d1f</t>
-  </si>
-  <si>
     <t>Hammer</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FIce.aud.mp3?alt=media&amp;token=b56812c1-e75c-4787-819a-136705676c98</t>
-  </si>
-  <si>
     <t>Ice</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FIcecream.aud.mp3?alt=media&amp;token=f10e31be-9713-4a6d-afce-7ab47a2fb347</t>
-  </si>
-  <si>
     <t>Ice cream</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FKettle.aud.mp3?alt=media&amp;token=b79494ce-4556-4cdf-8518-05bcd2b4155a</t>
-  </si>
-  <si>
     <t>Kettle</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FKey.aud.mp3?alt=media&amp;token=eb72ff9b-30f0-4e51-b2e2-b71df1b1f8e4</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FKnife.aud.mp3?alt=media&amp;token=754f6b8a-40be-4864-8e36-c09be859ca9e</t>
-  </si>
-  <si>
     <t>Knife</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLadder.aud.mp3?alt=media&amp;token=5c8fed1f-8fe5-4e5c-ba4d-cff4b49e9e72</t>
-  </si>
-  <si>
     <t>Ladder</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLemon.aud.mp3?alt=media&amp;token=08f00b53-5d7a-4474-8b89-679f59bd3b80</t>
-  </si>
-  <si>
     <t>Lemon</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLettuce.aud.mp3?alt=media&amp;token=f13118ee-b3c9-48b5-b22a-5721483714c9</t>
-  </si>
-  <si>
     <t>Lettuce</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLightbulb.aud.mp3?alt=media&amp;token=bb2767b6-357e-495f-b9d6-151e1fa499e8</t>
-  </si>
-  <si>
     <t>Light bulb</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMacaroniandcheese.aud.mp3?alt=media&amp;token=2b6692c6-37b0-40ef-bfb1-14c67bd8c82b</t>
-  </si>
-  <si>
     <t>Macaroni and cheese</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMailbox.aud.mp3?alt=media&amp;token=6d8b32cb-addf-4128-9f9a-11e6767818d1</t>
-  </si>
-  <si>
     <t>Mailbox</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMango.aud.mp3?alt=media&amp;token=0c9aeb46-065f-430a-a262-cb912c7d1b43</t>
-  </si>
-  <si>
     <t>Mango</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMeasuringcup.aud.mp3?alt=media&amp;token=8f79f22f-1fd1-4e92-942a-8f1c88404b4b</t>
-  </si>
-  <si>
     <t>Measuring cup</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMeasuringtape.aud.mp3?alt=media&amp;token=6683d2c6-33dc-4f2f-a60f-9742f0bb0a29</t>
-  </si>
-  <si>
     <t>Measuring tape</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMicrowave.aud.mp3?alt=media&amp;token=2c95e2f6-54c2-4f1c-a63a-5a9f9e36668d</t>
-  </si>
-  <si>
     <t>Microwave</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMilk.aud.mp3?alt=media&amp;token=d423d422-2e9f-4d27-8e03-70df8b7991f3</t>
-  </si>
-  <si>
     <t>Milk</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMop.aud.mp3?alt=media&amp;token=66bf10c7-2f01-4643-a936-c88b97a69b77</t>
-  </si>
-  <si>
     <t>Mop</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMuffin.aud.mp3?alt=media&amp;token=23187230-3e5a-4521-ab5d-c165c753d7d9</t>
-  </si>
-  <si>
     <t>Muffin</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FNailclipper.aud.mp3?alt=media&amp;token=d56f201a-f4a0-45e2-861d-f8204a0299a1</t>
-  </si>
-  <si>
     <t>Nail Clipper</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FOatmeal.aud.mp3?alt=media&amp;token=06cfb076-11d5-4a32-ab84-3160d1dff629</t>
-  </si>
-  <si>
     <t>Oatmeal</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FOnion.aud.mp3?alt=media&amp;token=b54b7219-2095-4a85-bbcb-176d20248c2b</t>
-  </si>
-  <si>
     <t>Onion</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FOrange.aud.mp3?alt=media&amp;token=bf455f11-a30e-4f0a-acb8-3f6ce25994e4</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FOvenmitt.aud.mp3?alt=media&amp;token=174c529a-ab09-4361-b068-5eb1085aeaa5</t>
-  </si>
-  <si>
     <t>Oven mitt</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPaintbrush.aud.mp3?alt=media&amp;token=5cad7c79-c4ca-442a-99ba-71eff2d2b90e</t>
-  </si>
-  <si>
     <t>Paint brush</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPan.aud.mp3?alt=media&amp;token=24649af1-efd6-4786-982b-cf2c261e2cfb</t>
-  </si>
-  <si>
     <t>Pan</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPancakes.aud.mp3?alt=media&amp;token=4ee9fc29-a47b-4fd6-a8f3-6ae8e2d079ae</t>
-  </si>
-  <si>
     <t>Pancakes</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPear.aud.mp3?alt=media&amp;token=8b571160-3f03-4d77-8c28-fba89c71f6c7</t>
-  </si>
-  <si>
     <t>Pear</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPeppers.aud.mp3?alt=media&amp;token=da77703b-fde5-41dc-82f7-3be2167dba08</t>
-  </si>
-  <si>
     <t>Peppers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPie.aud.mp3?alt=media&amp;token=7dd3f418-0114-43dd-82dd-bf38c281076e</t>
-  </si>
-  <si>
     <t>Pie</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPizza.aud.mp3?alt=media&amp;token=44eda1bb-7a99-4f8e-9b0b-bdd7ef95646d</t>
-  </si>
-  <si>
     <t>Pizza</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPlate.aud.mp3?alt=media&amp;token=e8f8ecb7-cf58-431d-8de3-5808de7dd48c</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPliers.aud.mp3?alt=media&amp;token=0305870b-9a5a-41a2-bfe9-0d39c54990a9</t>
-  </si>
-  <si>
     <t>Pliers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPot.aud.mp3?alt=media&amp;token=91d1c265-aed1-4793-98cd-678b1943439a</t>
-  </si>
-  <si>
     <t>Pot</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPowerdrill.aud.mp3?alt=media&amp;token=2dc5a9cc-a5ab-4ba6-b132-855c2e92c805</t>
-  </si>
-  <si>
     <t>Power drill</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRefrigerator.aud.mp3?alt=media&amp;token=ab69814e-737a-4ea5-b379-30ac5e42feea</t>
-  </si>
-  <si>
     <t>Refrigerator</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRice.aud.mp3?alt=media&amp;token=85f294ab-d1df-44d8-a607-d98af90ae05b</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSalad.aud.mp3?alt=media&amp;token=99358f90-1bc1-45a1-a061-cbb3bb4d330e</t>
-  </si>
-  <si>
     <t>Salad</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSandwich.aud.mp3?alt=media&amp;token=f9574d05-20a8-480d-9b44-32a0085a6d73</t>
-  </si>
-  <si>
     <t>Sandwich</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FScissors.aud.mp3?alt=media&amp;token=266684ab-3b35-4f95-b15f-8a36351f92c5</t>
-  </si>
-  <si>
     <t>Scissors</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShoppingcart.aud.mp3?alt=media&amp;token=3763249a-51dd-4cbb-8c75-ae7376cb0326</t>
-  </si>
-  <si>
     <t>Shopping cart</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShovel.aud.mp3?alt=media&amp;token=1b861611-3f7f-4b93-8276-21c09d11245e</t>
-  </si>
-  <si>
     <t>Shovel</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSmokedetector.aud.mp3?alt=media&amp;token=cd13a92f-d6d8-4469-ac53-b70deb4e874b</t>
-  </si>
-  <si>
-    <t>Smoke Detector</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSoup.aud.mp3?alt=media&amp;token=c795e158-9ac2-4295-b8de-56697131f4ee</t>
-  </si>
-  <si>
     <t>Soup</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSpaghetti.aud.mp3?alt=media&amp;token=3977a1d6-bc65-4268-b931-d658f0eecdf1</t>
-  </si>
-  <si>
     <t>Spaghetti</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSponge.aud.mp3?alt=media&amp;token=69b053cd-18e8-4169-b408-f3b52688ff7e</t>
-  </si>
-  <si>
     <t>Sponge</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSpoon.aud.mp3?alt=media&amp;token=f03e669f-7d63-4435-91f2-3bbd5d363f8e</t>
-  </si>
-  <si>
     <t>Spoon</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FStove.aud.mp3?alt=media&amp;token=9e2bb9bc-2077-472c-853d-92fba1e1ae91</t>
-  </si>
-  <si>
     <t>Stove</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FStrawberry.aud.mp3?alt=media&amp;token=8bf76aed-c020-4ca3-b549-648745240226</t>
-  </si>
-  <si>
     <t>Strawberry</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTable.aud.mp3?alt=media&amp;token=1d3e45f3-a9fd-4ce3-9d50-f50616096c62</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTaco.aud.mp3?alt=media&amp;token=5bb13489-1a20-4af5-ae89-c9fccdf24d2a</t>
-  </si>
-  <si>
     <t>Taco</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTea.aud.mp3?alt=media&amp;token=019d69b0-247b-45d8-82bd-1770d76e00d6</t>
-  </si>
-  <si>
     <t>Tea</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FToaster.aud.mp3?alt=media&amp;token=0128c9f1-cda3-4069-91c3-a40def454a3a</t>
-  </si>
-  <si>
     <t>Toaster</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTomato.aud.mp3?alt=media&amp;token=13b2e5cd-35b7-4beb-8082-73882535dd40</t>
-  </si>
-  <si>
     <t>Tomato</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTree.aud.mp3?alt=media&amp;token=b2de0491-3118-468c-9101-e5a5182207d0</t>
-  </si>
-  <si>
     <t>Tree</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FUmbrella.aud.mp3?alt=media&amp;token=6a8bb40e-43ee-4714-affd-afdf83790443</t>
-  </si>
-  <si>
     <t>Umbrella</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FVacuum.aud.mp3?alt=media&amp;token=1dc1b1b7-e1a8-4369-bd9c-7b949c09acec</t>
-  </si>
-  <si>
     <t>Vacuum</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWaffle.aud.mp3?alt=media&amp;token=4b05c4d9-b5f8-49b6-a628-9927e6885c64</t>
-  </si>
-  <si>
     <t>Waffle</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWasher.aud.mp3?alt=media&amp;token=e9e3d76d-d330-4132-9441-7328b923f6cf</t>
-  </si>
-  <si>
     <t>Washer</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWater.aud.mp3?alt=media&amp;token=24b79c31-092b-40f3-bc60-6625573714a2</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWatermelon.aud.mp3?alt=media&amp;token=0da6d302-030b-493f-b656-fb9b4c7bc377</t>
-  </si>
-  <si>
     <t>Watermelon</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FYogurt.aud.mp3?alt=media&amp;token=06666a3b-48de-4f50-8a3b-ff36d6a53e08</t>
-  </si>
-  <si>
     <t>Yogurt</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FAlarmclock.aud.mp3?alt=media&amp;token=e612c571-f861-4b90-ab33-0d7233eb070a</t>
-  </si>
-  <si>
     <t>Alarm clock</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBalloons.aud.mp3?alt=media&amp;token=ae58d56c-7df3-48d4-84d1-606ac4a651d8</t>
-  </si>
-  <si>
     <t>Balloons</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBaseball.aud.mp3?alt=media&amp;token=92bde9cb-4ac5-454b-9e82-3064900c0a00</t>
-  </si>
-  <si>
     <t>Baseball</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBasketball.aud.mp3?alt=media&amp;token=11e21109-04c2-4a26-ab82-95f37f1189ee</t>
-  </si>
-  <si>
     <t>Basketball</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBed.aud.mp3?alt=media&amp;token=ed11d294-82c5-40a0-a249-c4f1c5d1064e</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBelt.aud.mp3?alt=media&amp;token=85adb68c-d9a6-42c6-a319-4fd520e38de2</t>
-  </si>
-  <si>
     <t>Belt</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBike.aud.mp3?alt=media&amp;token=2dc9f7ff-bd54-4588-aa4e-8940142e405e</t>
-  </si>
-  <si>
     <t>Bike</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBird.aud.mp3?alt=media&amp;token=707f1655-74ab-4da6-aba0-9c5960dac226</t>
-  </si>
-  <si>
     <t>Bird</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBlanket.aud.mp3?alt=media&amp;token=37e2d482-c01f-4918-a5fa-e57117074653</t>
-  </si>
-  <si>
     <t>Blanket</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBook.aud.mp3?alt=media&amp;token=3d268d06-a80e-4a83-b6f3-6d81e10b4984</t>
-  </si>
-  <si>
     <t>Book</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBoots.aud.mp3?alt=media&amp;token=fc0371db-c170-477e-957e-da84ab320d19</t>
-  </si>
-  <si>
     <t>Boots</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FButton.aud.mp3?alt=media&amp;token=9e5cd481-7683-4141-9b0f-cfd3b113f293</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCalculator.aud.mp3?alt=media&amp;token=56327ed2-2b37-4554-87b2-4d814e26b933</t>
-  </si>
-  <si>
     <t>Calculator</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCamera.aud.mp3?alt=media&amp;token=7d9094ba-f8a7-4e7b-9e16-559728ea1f1e</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCane.aud.mp3?alt=media&amp;token=345660be-44f5-4b56-b1d2-3edf59b7ac7a</t>
-  </si>
-  <si>
     <t>Cane</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCap.aud.mp3?alt=media&amp;token=8ffa394f-3463-4b80-9111-3401a8b82227</t>
-  </si>
-  <si>
     <t>Cap</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCards.aud.mp3?alt=media&amp;token=043ea276-971e-443b-acbc-1bd7747d7036</t>
-  </si>
-  <si>
     <t>Cards</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCat.aud.mp3?alt=media&amp;token=70fca7a4-f876-41f7-9246-428db2e15352</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCheckbook.aud.mp3?alt=media&amp;token=6b4526d4-d800-49a0-828c-fff7ec6cb6cd</t>
-  </si>
-  <si>
     <t>Checkbook</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FClock.aud.mp3?alt=media&amp;token=a433c30a-e4c4-45b4-a4bf-f0344963c97d</t>
-  </si>
-  <si>
     <t>Clock</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCoat.aud.mp3?alt=media&amp;token=4141b865-edb2-48f3-baaf-20ba51f11fe4</t>
-  </si>
-  <si>
     <t>Coat</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDog.aud.mp3?alt=media&amp;token=a6e42630-7e64-4d0e-8ef5-4c2a5c785cf3</t>
-  </si>
-  <si>
     <t>Dog</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDoor.aud.mp3?alt=media&amp;token=811886b0-f264-4ed0-afed-8e0cc3616cdc</t>
-  </si>
-  <si>
     <t>Door</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDoorknob.aud.mp3?alt=media&amp;token=6111babf-d025-4fdc-842d-5172a819aec0</t>
-  </si>
-  <si>
     <t>Doorknob</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDress.aud.mp3?alt=media&amp;token=52212edb-65c6-44b0-b4d3-b7ad35f41a0e</t>
-  </si>
-  <si>
     <t>Dress</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDresser.aud.mp3?alt=media&amp;token=a673abfa-7f69-4f4b-a16c-29b080461cff</t>
-  </si>
-  <si>
     <t>Dresser</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FEarrings.aud.mp3?alt=media&amp;token=5c2f40c3-e4a4-4dce-9efc-a19054d1161f</t>
-  </si>
-  <si>
     <t>Earrings</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FEnvelope.aud.mp3?alt=media&amp;token=c536d7f2-5e01-419a-9600-4aaf7d517de7</t>
-  </si>
-  <si>
     <t>Envelope</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFan.aud.mp3?alt=media&amp;token=c5c05685-27f2-42db-a01d-b96940b30b8d</t>
-  </si>
-  <si>
     <t>Fan</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFish.aud.mp3?alt=media&amp;token=769c534e-8b6c-4fdb-bbfd-ca3d865e8e97</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFlowers.aud.mp3?alt=media&amp;token=41ebec9d-ae9e-4b21-8e04-468451721586</t>
-  </si>
-  <si>
     <t>Flowers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FFolder.aud.mp3?alt=media&amp;token=d1b905af-8925-4aff-944a-ed0b63a23ede</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGloves.aud.mp3?alt=media&amp;token=e090fb8e-86f3-494f-8836-fd1582720748</t>
-  </si>
-  <si>
     <t>Gloves</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHanger.aud.mp3?alt=media&amp;token=53cfcb00-fedf-454b-a7b4-66a5ec439513</t>
-  </si>
-  <si>
     <t>Hanger</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHelmet.aud.mp3?alt=media&amp;token=140c8015-7629-449c-b2c8-729e8cde3123</t>
-  </si>
-  <si>
     <t>Helmet</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHouse.aud.mp3?alt=media&amp;token=65cf592e-9add-4e1c-955f-5eacf4d6e0bb</t>
-  </si>
-  <si>
     <t>House</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FIron.aud.mp3?alt=media&amp;token=2802d862-b823-4c2e-b25b-e5733370625a</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FIroningboard.aud.mp3?alt=media&amp;token=ccc2d0aa-5bb0-4cf0-98ac-d19cbb58dd6d</t>
-  </si>
-  <si>
     <t>Ironing board</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLaptop.aud.mp3?alt=media&amp;token=19069c9f-78ed-4d3a-b172-ec7a35caff7f</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FLightswitch.aud.mp3?alt=media&amp;token=4aaa4871-8d03-4259-9493-3cfbb78c08a4</t>
-  </si>
-  <si>
     <t>Light Switch</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMoney.aud.mp3?alt=media&amp;token=a664ade9-7055-4525-81b9-c3575fd96853</t>
-  </si>
-  <si>
     <t>Money</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FNecklace.aud.mp3?alt=media&amp;token=1f1f2bdb-ab7a-4ac8-b536-b37269a8cd40</t>
-  </si>
-  <si>
     <t>Necklace</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FNewspaper.aud.mp3?alt=media&amp;token=4a127fb2-bd1e-4e8f-b1dd-97942bb1be0a</t>
-  </si>
-  <si>
     <t>Newspaper</t>
   </si>
   <si>
     <t>Notebook</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPants.aud.mp3?alt=media&amp;token=d17cf71b-f880-4058-882f-fd0ab4d30887</t>
-  </si>
-  <si>
     <t>Pants</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPen.aud.mp3?alt=media&amp;token=b7cf0f28-0daa-477e-a472-4d684a24435d</t>
-  </si>
-  <si>
     <t>Pen</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPencil.aud.mp3?alt=media&amp;token=d406f954-93e0-4b29-b09f-6c36bdc9776a</t>
-  </si>
-  <si>
     <t>Pencil</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTelephone.aud.mp3?alt=media&amp;token=e99f005e-6752-4afb-b0bf-a8dcb8f7a15f</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPillow.aud.mp3?alt=media&amp;token=38428a4b-c9db-47fd-bdaa-0cebe4dd021a</t>
-  </si>
-  <si>
     <t>Pillow</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRadio.aud.mp3?alt=media&amp;token=30e843a4-6274-4345-a902-d1340238af61</t>
-  </si>
-  <si>
     <t>Radio</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRemoteControl.aud.mp3?alt=media&amp;token=a1ae17c2-9a09-4dfe-85f4-15833731e3c0</t>
-  </si>
-  <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRing.aud.mp3?alt=media&amp;token=0a913f8d-a390-41a8-bbea-cf718d7bb31a</t>
-  </si>
-  <si>
     <t>Ring</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSandals.aud.mp3?alt=media&amp;token=585c9f84-9071-4d5b-9e0d-e5bebd845e6c</t>
-  </si>
-  <si>
     <t>Sandals</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FScarf.aud.mp3?alt=media&amp;token=6a0bfec3-7fa8-4430-ae4e-7dc064a35259</t>
-  </si>
-  <si>
     <t>Scarf</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShirt.aud.mp3?alt=media&amp;token=5665c159-2bf5-4313-9fbc-32edc0dfec59</t>
-  </si>
-  <si>
     <t>Shirt</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShoes.aud.mp3?alt=media&amp;token=cea66762-304c-48bf-b9f8-fb2b7937487b</t>
-  </si>
-  <si>
     <t>Shoes</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShorts.aud.mp3?alt=media&amp;token=5e74070a-2ca4-466d-8695-fcdbf7eac7a7</t>
-  </si>
-  <si>
     <t>Shorts</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSkirt.aud.mp3?alt=media&amp;token=ed44a0df-ea1e-44d7-b096-77eeaaff9576</t>
-  </si>
-  <si>
     <t>Skirt</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSlippers.aud.mp3?alt=media&amp;token=b0af17e2-77c3-4017-9c14-21c0b5079ba9</t>
-  </si>
-  <si>
     <t>Slippers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSock.aud.mp3?alt=media&amp;token=a92947e6-1661-4778-b01b-bf49c0763155</t>
-  </si>
-  <si>
     <t>Sock</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTie.aud.mp3?alt=media&amp;token=095599b3-6506-4dd0-907a-d51256ad7185</t>
-  </si>
-  <si>
     <t>Tie</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTreadmill.aud.mp3?alt=media&amp;token=52e7aff6-e5c5-4835-8d1b-fce2b49525b0</t>
-  </si>
-  <si>
     <t>Treadmill</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTelevision.aud.mp3?alt=media&amp;token=51bb5cc3-67b1-404c-9b6a-f5129855c903</t>
-  </si>
-  <si>
     <t>Television</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWalker.aud.mp3?alt=media&amp;token=a5b0cfe5-ac96-4e76-818c-d108d0427f53</t>
-  </si>
-  <si>
     <t>Walker</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWallet.aud.mp3?alt=media&amp;token=21d35e99-b32f-48b8-879e-31b844a66eed</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWatch.aud.mp3?alt=media&amp;token=4df546b4-ff84-4e23-88fc-84e5d7f615b5</t>
-  </si>
-  <si>
     <t>Watch</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWeights.aud.mp3?alt=media&amp;token=d702609b-d513-4af9-af37-8efc64b35d91</t>
-  </si>
-  <si>
     <t>Weights</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FWheelchair.aud.mp3?alt=media&amp;token=4ec1c985-5565-46a2-8fb6-b0fb97181f35</t>
-  </si>
-  <si>
     <t>Wheelchair</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FZipper.aud.mp3?alt=media&amp;token=d8a476bd-9cdd-4ecd-84ce-e7a5915cfa62</t>
-  </si>
-  <si>
     <t>Zipper</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBandage.aud.mp3?alt=media&amp;token=214d460a-aa5c-4344-937d-dfcbb598d689</t>
-  </si>
-  <si>
     <t>Bandage</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBlowDryer.aud.mp3?alt=media&amp;token=ef9bf185-618b-4a44-a3f5-cea0eb4fa5e6</t>
-  </si>
-  <si>
     <t>Blow dryer</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBrush.aud.mp3?alt=media&amp;token=23dc11fd-d940-49b2-b17d-bf1386eb9ebe</t>
-  </si>
-  <si>
     <t>Brush</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FClippers.aud.mp3?alt=media&amp;token=6b6809e7-d2d3-4ca7-9be8-4bcc46d22435</t>
-  </si>
-  <si>
     <t>Clippers</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FCologne.aud.mp3?alt=media&amp;token=0f881dbe-47ad-4094-95c0-072d1de43d63</t>
-  </si>
-  <si>
     <t>Cologne</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FComb.aud.mp3?alt=media&amp;token=262d3295-919c-4cea-a60e-347d84bd78bf</t>
-  </si>
-  <si>
     <t>Comb</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FDeodorant.aud.mp3?alt=media&amp;token=9fc2c33d-d4f8-46a1-99eb-a9a3be3957a5</t>
-  </si>
-  <si>
     <t>Deodorant</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FElectricrazor.aud.mp3?alt=media&amp;token=eaa923ce-2d06-4167-b440-fe73f2709473</t>
-  </si>
-  <si>
     <t>Electric razor</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FGlasses.aud.mp3?alt=media&amp;token=104be8eb-52d0-4d25-9619-5d541c879f3b</t>
-  </si>
-  <si>
     <t>Glasses</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FHamper.aud.mp3?alt=media&amp;token=aa4d3ba6-c5fe-42d6-a278-9ebc09fb61f9</t>
-  </si>
-  <si>
     <t>Hamper</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMake-up.aud.mp3?alt=media&amp;token=55a0cf34-3d60-4f3b-b391-22474c9b606f</t>
-  </si>
-  <si>
     <t>Make-up</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMat.aud.mp3?alt=media&amp;token=898415e2-6d9d-4a90-9f30-9c84766b810a</t>
-  </si>
-  <si>
     <t>Mat</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMirror.aud.mp3?alt=media&amp;token=54f404c9-e97d-4d46-b7f0-52a728026409</t>
-  </si>
-  <si>
     <t>Mirror</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FMouthwash.aud.mp3?alt=media&amp;token=585e1adf-b4d9-4365-8dfa-d4ef1513e4be</t>
-  </si>
-  <si>
     <t>Mouthwash</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPerfume.aud.mp3?alt=media&amp;token=14f257c8-b484-4cd2-8234-fa216ac964b1</t>
-  </si>
-  <si>
     <t>Perfume</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FPlunger.aud.mp3?alt=media&amp;token=af62d557-75e8-40da-be63-c687f7cce9bc</t>
-  </si>
-  <si>
     <t>Plunger</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FRazor.aud.mp3?alt=media&amp;token=5e70099f-3405-4a8b-b763-bde07b37bb3d</t>
-  </si>
-  <si>
     <t>Razor</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FShampoo.aud.mp3?alt=media&amp;token=7946dd71-9e1b-47c1-9fea-9e683a52cc65</t>
-  </si>
-  <si>
     <t>Shampoo</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSink.aud.mp3?alt=media&amp;token=3ada8129-e553-4ffa-b3d5-e5e1c3e01dc7</t>
-  </si>
-  <si>
     <t>Sink</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FSoap.aud.mp3?alt=media&amp;token=2d729ba9-56ed-4ba9-9558-81d47bdad679</t>
-  </si>
-  <si>
     <t>Soap</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FThermometer.aud.mp3?alt=media&amp;token=be112b30-3f7b-4e08-9c74-d56262376d80</t>
-  </si>
-  <si>
     <t>Thermometer</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FToilet.aud.mp3?alt=media&amp;token=02e95ad0-3ba0-486a-be12-b480fcde556a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FToiletTissue.aud.mp3?alt=media&amp;token=a2bdaa1a-2366-4b6b-88dd-8e36c694049a</t>
-  </si>
-  <si>
     <t>Toilet tissue</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FToothbrush.aud.mp3?alt=media&amp;token=ee843c82-0a1e-4597-ae24-439c14d5fbc6</t>
-  </si>
-  <si>
     <t>Toothbrush</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FToothpaste.aud.mp3?alt=media&amp;token=5912815e-a71e-42b0-b301-6e98efb87e88</t>
-  </si>
-  <si>
     <t>Toothpaste</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FTowel.aud.mp3?alt=media&amp;token=b16cd617-6963-4174-bcfc-b8d631f926ad</t>
-  </si>
-  <si>
     <t>Towel</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Naming%20Audio%20Isolated%2FBathtub.aud.mp3?alt=media&amp;token=ecd8ca0d-3064-48c6-a9a2-d1f75e573e51</t>
-  </si>
-  <si>
     <t>Tub</t>
   </si>
   <si>
@@ -1816,13 +1209,685 @@
   </si>
   <si>
     <t>If you have a roommate, what does your room have to increase privacy?</t>
+  </si>
+  <si>
+    <t>Where do you live?</t>
+  </si>
+  <si>
+    <t>Describe your family?</t>
+  </si>
+  <si>
+    <t>Do you have any hobbies?</t>
+  </si>
+  <si>
+    <t>Do you have any special talents?</t>
+  </si>
+  <si>
+    <t>What kind of music do you like?</t>
+  </si>
+  <si>
+    <t>What did you do today?</t>
+  </si>
+  <si>
+    <t>Where have you traveled?</t>
+  </si>
+  <si>
+    <t>What was/is your occupation?</t>
+  </si>
+  <si>
+    <t>Where did you go to school?</t>
+  </si>
+  <si>
+    <t>Do you like pets?</t>
+  </si>
+  <si>
+    <t>Do you have any favorite sports?</t>
+  </si>
+  <si>
+    <t>What Is your favorite sports team?</t>
+  </si>
+  <si>
+    <t>What is you favorite food?</t>
+  </si>
+  <si>
+    <t>What is your favorite movie?</t>
+  </si>
+  <si>
+    <t>What is your favorite memory?</t>
+  </si>
+  <si>
+    <t>Do you have any siblings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is </t>
+  </si>
+  <si>
+    <t>What is your favorite color?</t>
+  </si>
+  <si>
+    <t>What is your favorite television program?</t>
+  </si>
+  <si>
+    <t>What was your favorite subject in school?</t>
+  </si>
+  <si>
+    <t>Who is your favorite singer?</t>
+  </si>
+  <si>
+    <t>Who is your favorite actor</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fairplane.jpg?alt=media&amp;token=802d13d2-fa20-4e3e-896b-55348cfa1d05</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fapple.jpg?alt=media&amp;token=dbf7ec60-0082-4415-ba15-9d32689216be</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Favacado.jpg?alt=media&amp;token=21af2e91-15cc-4752-8943-2600f80c0d2e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbacon.jpg?alt=media&amp;token=ab34d4a8-8800-4940-8893-21fa44f34c86</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbagel.jpg?alt=media&amp;token=1d27b037-5562-487c-b0dd-2f36781b4740</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbanana.jpg?alt=media&amp;token=9b42fed2-a9af-4e92-9ef1-2cad01b1d51d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fbasket.jpg?alt=media&amp;token=c9776450-706f-4a0e-9450-4ca9a080bfa7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbattery.jpg?alt=media&amp;token=96346b95-4062-48db-9981-d5d68b0a97b5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbeans.jpg?alt=media&amp;token=c1fa2e60-fa68-4749-b47a-a510e67bb123</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fblender.jpg?alt=media&amp;token=e742a70f-40d2-4b76-8eda-8e6018f9f171</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbowl.jpg?alt=media&amp;token=80806510-0a96-4335-b3af-14d7b83932dd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbread.jpg?alt=media&amp;token=0ed17a19-327b-401b-9ee0-1ce23e41cce0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbrocolli.jpg?alt=media&amp;token=180dcfa4-c467-4795-9aae-6a011dcf8e93</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbroom.jpg?alt=media&amp;token=db38f66e-3a33-4e8e-94c9-c5be1fc9b3b5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbutter.jpg?alt=media&amp;token=e0691152-bdd7-4033-b36a-78e86c0dc49b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fbirthdaycake.jpg?alt=media&amp;token=09294881-7131-47c9-9700-e64fbd8d6bce</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2FCalendar.jpg?alt=media&amp;token=e9e2c30c-5c17-40f1-b1e1-1cd48ec15234</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcan.jpg?alt=media&amp;token=e3e3e642-b7fd-471b-9fd2-76c25c5143b2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcanopener.jpg?alt=media&amp;token=c29ee54d-60fc-4af4-85c4-80a0f9cd7fe2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcar.jpg?alt=media&amp;token=a242909c-9a0d-4f8c-bb72-a63ee095f546</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcarrot.jpg?alt=media&amp;token=5f29083a-d4dc-4164-870a-3866f3a9d6ed</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcereal.jpg?alt=media&amp;token=bda24575-86a2-4cf5-964c-51a6fb104f06</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fchair.jpg?alt=media&amp;token=acc2a123-95c6-4e56-9557-dad83850bdde</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcheese.jpg?alt=media&amp;token=f6b1f99e-51b3-49fa-bb30-27d2feddf5f5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fchicken.jpg?alt=media&amp;token=8047178b-4ad2-4db9-bf89-f7f916793b40</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fclothespin2.jpg?alt=media&amp;token=d2581263-4ee9-4658-87d0-faa32b192602</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcoffee.jpg?alt=media&amp;token=17547c38-5076-4542-ad7f-e1b63711c2da</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcoffeemaker.jpg?alt=media&amp;token=3364c8d4-4725-42b2-81a6-92243d8e6a93</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcookie.jpg?alt=media&amp;token=bb0a4a66-6e3d-40c2-bf69-d71e023d6185</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcorn.jpg?alt=media&amp;token=d3f18cdc-1746-4c93-81e4-2951d754f731</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcrackers.jpg?alt=media&amp;token=d0929e11-c9f1-4581-a459-5988f74cc2cf</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fcup.jpg?alt=media&amp;token=92f226cc-179e-45b7-bbd8-d05ec1b1b2d3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fdetergent.jpg?alt=media&amp;token=12e8fb2b-8b49-48be-82c0-7bacc9359781</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2FDishsoap.jpg?alt=media&amp;token=5b23a759-b2c6-4092-86d1-5f0ec18aa00e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fdonut.jpg?alt=media&amp;token=51f89707-3cfb-42fb-8568-57e2a28f953d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Feggs.jpg?alt=media&amp;token=22540df7-a23d-4550-83d9-0336f6059ac4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ffire.jpg?alt=media&amp;token=5d3a1040-c8f0-41b9-b7d7-19a8950a7576</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fflaslight.jpg?alt=media&amp;token=8f659f12-de3e-470b-8417-55556cdb3cce</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ffork.jpg?alt=media&amp;token=40fc3921-1130-41e1-947e-762ae04a5508</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fgarbagecan.jpg?alt=media&amp;token=0a98afda-ba4a-4840-a5d8-7aa86c49c23b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fgarlic.jpg?alt=media&amp;token=5b6eaf57-f004-4eb2-981d-49cb987584cd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fgrapes.jpg?alt=media&amp;token=0e65b81e-b7f5-443d-87fe-e87c2d5baa0b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fgum.jpg?alt=media&amp;token=ee7b0ce5-4e2d-4058-9128-0468c6a7be05</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fhamburger.jpg?alt=media&amp;token=615563bf-326d-4e47-8706-66cfc11b2074</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fhammer.jpg?alt=media&amp;token=1beb6298-a047-4028-a384-e4515ce00902</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fice.jpg?alt=media&amp;token=a5360925-dc73-441e-a8f3-3a855ae516a6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ficecream.jpg?alt=media&amp;token=5ae2ec31-96da-4c5a-9385-7cd09232ad58</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fkettle.jpg?alt=media&amp;token=35249295-6377-4ba3-aa07-2eb528a6a246</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fkey.jpg?alt=media&amp;token=749c4996-fc10-47bb-ae8c-7ea6928ef22e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fknife.jpg?alt=media&amp;token=7bf7997b-c9ba-47af-a93e-01a5675e1378</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fladder.jpg?alt=media&amp;token=c7c62140-869b-46bb-9459-5b337a1db012</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Flemon.jpg?alt=media&amp;token=ea0e91b3-0dd1-4c52-93b9-a0e0a21d4771</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Flettuce.jpg?alt=media&amp;token=555b6ef0-ca5b-4ac1-bd46-aaf5bb86840b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Flightbulb.jpg?alt=media&amp;token=395b3eea-7e81-407c-8c87-84434369b0da</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmacaroni.jpg?alt=media&amp;token=5c73e8bd-cfea-4836-b786-9187a68b20ac</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmailbox.jpg?alt=media&amp;token=928ad9bc-3778-4295-a1f9-aa4115838860</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmango.jpg?alt=media&amp;token=e5cc907c-324d-4b7c-9d16-060f58c27e04</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmeasuringcup.jpg?alt=media&amp;token=c7c25e60-c059-460b-bd90-f63536bdd0ab</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2FMeasuringtape.jpg?alt=media&amp;token=9038c8e6-5ced-454a-b5e9-c5b77bc6471b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmicrowave.jpg?alt=media&amp;token=8350e86f-93f8-48a7-9764-02ad30ac4e5b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmilk.jpg?alt=media&amp;token=56ce0613-792e-4951-8757-d34b71df1c25</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmop.jpg?alt=media&amp;token=a876886c-9947-478f-89e7-4d1047f928f6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fmuffin.jpg?alt=media&amp;token=c152b27a-cbe8-4610-be07-a9d8e8297823</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Foatmeal.jpg?alt=media&amp;token=d8541b3c-fc26-436e-a644-897c788ac06b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fonion.jpg?alt=media&amp;token=9e3c00a1-bb40-47e0-babb-108459976084</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Forange.jpg?alt=media&amp;token=48b6c16c-e020-4025-a2af-be8a502b3228</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fovenmitt.jpg?alt=media&amp;token=c4687a94-8a80-49e2-8814-068e55aa9c68</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpaintbrush.jpg?alt=media&amp;token=069b556b-449d-493f-8ad0-83d4af4418f7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpan.jpg?alt=media&amp;token=f29848f9-905d-467a-8f64-18851188b602</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpancakes.jpg?alt=media&amp;token=dfba007b-43fa-4db3-af27-0e95c1f5f584</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpear.jpg?alt=media&amp;token=c23480ca-2a5f-4ad6-8678-5a9ba41d030e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpeppers.jpg?alt=media&amp;token=6d11cf4f-0f77-466a-b1e6-5c0febcf7eef</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpie.jpg?alt=media&amp;token=a18db799-98de-411d-98cb-a67040a15e68</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpizza.jpg?alt=media&amp;token=3168b388-19a5-4e5c-b84f-8218a7ebcdb8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fplate.jpg?alt=media&amp;token=240dd2db-1dc6-4bff-b15c-247ee6c2ae55</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpliers.jpg?alt=media&amp;token=1a38656e-a776-473e-9dd1-5253a3bb95bf</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpot.jpg?alt=media&amp;token=44c7bb47-7e60-4e18-a714-1de7c00e3ac2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fpowerdrill.jpg?alt=media&amp;token=e6ce59ef-a144-4a35-ac70-6a00d576f02a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Frefridgerator.jpg?alt=media&amp;token=308ae4bd-6f17-4480-9de9-f0ac69b9e06e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Frice.jpg?alt=media&amp;token=e835527f-9587-4e21-9926-5598e880de1c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsalad.jpg?alt=media&amp;token=073d5f19-fb3b-4142-ac7c-768c8d3b9f16</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsandwich.jpg?alt=media&amp;token=bc510a68-c676-47cb-9b8a-22837952658a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fscissors.jpg?alt=media&amp;token=32871a17-9304-4b16-90f4-6d9da41202a6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fshoppingcart.jpg?alt=media&amp;token=ac34f514-139b-4b94-a4e5-c819706c931d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fshovel.jpg?alt=media&amp;token=8244d7ae-c147-4e5c-9692-deb2f968267d</t>
+  </si>
+  <si>
+    <t>Smoke detector</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsmokedetector.jpg?alt=media&amp;token=b85e27f1-67bf-4b81-9ea6-5975531ebec1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsoup.jpg?alt=media&amp;token=113551af-3ead-4f0a-a42a-9eb8b5f7a11e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsphagetti.jpg?alt=media&amp;token=485bd5d3-4967-4635-aede-8026d96ea554</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fsponge.jpg?alt=media&amp;token=eb6f88a9-407f-4b4c-b825-bb00e28c91be</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fspoon.jpg?alt=media&amp;token=6c25070b-a490-4bf6-8cef-d5ab783c36b6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fstove.jpg?alt=media&amp;token=c1834501-1a53-42f1-80ca-230b065e55d0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fstrawberry.jpg?alt=media&amp;token=93a0f6e5-f926-4641-a7ed-7fea4c1ff5dc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftable.jpg?alt=media&amp;token=8444ae90-0d93-4292-a073-50603468f43b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftaco.jpg?alt=media&amp;token=0799806c-2e54-4632-b903-8932a5fb971d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftea.jpg?alt=media&amp;token=18c8ab38-b796-4637-a18f-09ddd1ec714b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftoaster.jpg?alt=media&amp;token=bbdf0acb-2ec6-4f31-b4f7-5fc05beaa7c2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftomato.jpg?alt=media&amp;token=32ae7613-6f7a-43e9-b13a-5c77026816f5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Ftree.jpg?alt=media&amp;token=5851fdcc-8b27-4a14-a1fe-1a412cb36894</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fumbrella.jpg?alt=media&amp;token=3ef8c8ac-3e6e-449a-b5c2-4541d2bf92db</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fvacuum.jpg?alt=media&amp;token=f39825b3-8427-4cf8-a622-a5d7bc82a984</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fwaffles.jpg?alt=media&amp;token=b04bd2f6-a1ec-4495-be5b-767233571b18</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fwasher.jpg?alt=media&amp;token=346d0a00-ebd2-4972-87ce-2e09122c2a23</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fwater.jpg?alt=media&amp;token=c41c4af1-8eec-4270-b556-f9ef1fff8994</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fwatermelon.jpg?alt=media&amp;token=89da3f72-d608-4138-9dbf-8f9d2844e73f</t>
+  </si>
+  <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fwrench.jpg?alt=media&amp;token=5c59e16f-f096-4584-b1e8-353d1d32d4bf</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fyogurt.jpg?alt=media&amp;token=2bc34ee9-332b-4d38-b99f-f46c210b0edc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Falarm.jpg?alt=media&amp;token=63811c4b-5853-437f-bd51-00801b4df705</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fballoons.jpg?alt=media&amp;token=a6ac9e41-5696-4fb6-ad4c-70cf955ba644</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbaseball.jpg?alt=media&amp;token=c0e9bcfe-c6d4-4978-8484-7b90fb2b704c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbasketball.jpg?alt=media&amp;token=72303820-743d-4f0a-95be-6ad99986c8b5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbed.jpg?alt=media&amp;token=8452f25b-541f-49d0-bb0d-9f742182ce2b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbelt.jpg?alt=media&amp;token=f6ab98e0-1b2b-4335-a058-0a6c1fb30bb5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbike.jpg?alt=media&amp;token=b10c52bb-cf8e-467e-a71f-dafc59c33bbf</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbird.jpg?alt=media&amp;token=49282ee4-24e3-496e-b477-60eca7085df7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fblanket.jpg?alt=media&amp;token=7918bcf7-3617-42e3-94f9-35e649a43f15</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbook.jpg?alt=media&amp;token=4b4b59b3-dfaa-4c45-8ebc-6cf0e7548d24</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fboots.jpg?alt=media&amp;token=31077dee-dbb2-4d83-b926-b90d0317910d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fbutton.jpg?alt=media&amp;token=1b0752d2-53a3-45de-ac11-8a7593e8ab87</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcalculator.jpg?alt=media&amp;token=5c60acb4-95ec-444f-ac42-c28ebc27f5a4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcamera.jpg?alt=media&amp;token=44a9eb19-7d05-4246-8725-006afd925300</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcane.jpg?alt=media&amp;token=759292e6-7bc3-45c4-85fc-49b3f64b6b0d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcap.jpg?alt=media&amp;token=62cfe73c-6da2-4951-b8c2-652247065ece</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcards.jpg?alt=media&amp;token=ed900e33-1034-437c-82df-e998c9316670</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcat.jpg?alt=media&amp;token=45b0b713-cceb-4b63-978c-072466b98396</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcheckbook.jpg?alt=media&amp;token=551b8c1b-e59e-4801-8b33-6d69b577b03e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fclock.jpg?alt=media&amp;token=6fd60733-6676-4918-8b72-878f69b3dec0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fcoat.jpg?alt=media&amp;token=cd62260b-db7b-4ce2-abda-4db365cd6cc3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fdoor.jpg?alt=media&amp;token=43e6acaf-bd7c-47e6-ad21-bc125b65578a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fdress.jpg?alt=media&amp;token=e29c566e-2c7d-494b-b57a-eb0045a3f398</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fdresser.jpg?alt=media&amp;token=aa6ce192-12d2-4edc-80e5-4e5078e43e2b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fearrings.jpg?alt=media&amp;token=0de4d79a-be08-4286-9fe3-f54a0653da81</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fenvelope.jpg?alt=media&amp;token=8cf18a82-dd70-46d3-b1b1-73acc60ae7fc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ffan.jpg?alt=media&amp;token=984edd78-8c26-4aca-8338-954b095aef41</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ffish.jpg?alt=media&amp;token=0df83173-76ed-4166-81bb-0e65e0e5a909</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fflowers.jpg?alt=media&amp;token=e588e045-0b94-4897-96fe-5addd9b79560</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ffolder.jpg?alt=media&amp;token=15ec38fb-f21f-4344-9593-ef2804d88352</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fgloves.jpg?alt=media&amp;token=999dc82f-8d59-4da8-9ef2-ce1dd0b8a8b0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fhanger.jpg?alt=media&amp;token=325c3580-d640-4f3b-91c4-5bcf834c75a3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fhelmet.jpg?alt=media&amp;token=1aa41e83-27fd-49b8-b38d-de9a739ca1b2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Kitchen%2Fhouse.jpg?alt=media&amp;token=d7633e2f-86d1-4bbf-aaaa-1b46c762f9ec</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Firon.jpg?alt=media&amp;token=750b2797-4b0d-4728-96c9-3be782c9acf8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fironingboard.jpg?alt=media&amp;token=69f233ad-c4c4-4254-a50a-9155f953c15c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Flaptop.jpg?alt=media&amp;token=b4877605-5ea7-49d4-8ed0-daf6b957c6ec</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2FLight%20switch.jpg?alt=media&amp;token=e9313494-7881-49f9-a506-d52d4f919a37</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fmoney.jpg?alt=media&amp;token=c5e2c340-9585-40c3-88d0-12642d17f3e3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fnecklace.jpg?alt=media&amp;token=74d1342c-dd7c-4147-b1f4-bb57e5890909</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fnewspaper.jpg?alt=media&amp;token=5d4afdd3-10a3-463d-987f-9e28f5ce3c81</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fnotebook.jpg?alt=media&amp;token=8a43e736-8836-47a1-bfab-b607c4a55ed5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fpants.jpg?alt=media&amp;token=891b8065-711e-4f0b-8026-208218eb0971</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fpen.jpg?alt=media&amp;token=0d47b7fd-bf38-42a9-9afd-b2d742460613</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fpencil.jpg?alt=media&amp;token=532ffd19-b31c-4bce-a368-6aac9c7a102a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fphone.jpg?alt=media&amp;token=38a12e93-2f95-43ca-bef1-4993817b6591</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fpillow.jpg?alt=media&amp;token=0cabf3cd-ce16-48d1-ae62-4be5967f24b6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fradio.jpg?alt=media&amp;token=68ca0a4c-9745-4242-9c5a-9ae20d4b608e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fremote.jpg?alt=media&amp;token=40292db6-3631-4384-b690-8f7c5302f545</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fring3.jpg?alt=media&amp;token=212b1b6b-57e7-46cc-9192-76c0231d1726</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2FSandals.jpg?alt=media&amp;token=f58910c5-c87b-44cd-acae-4bb3e2ae009a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fscarf.jpg?alt=media&amp;token=59eeaec6-7c35-4a15-8686-3438307e224f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fshirt2.jpg?alt=media&amp;token=f709d8f8-9c6a-4c4b-9e90-7026cd12753b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Adjective%20Images%2Fadjshiny2.jpg?alt=media&amp;token=7e0e13b3-13d7-45bd-ab8c-ed0ba0d30d92</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fshorts.jpg?alt=media&amp;token=20039fc5-e7ce-46cd-9575-27d59b32121b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Adjective%20Images%2Fadjpink2.jpg?alt=media&amp;token=af4d3fea-0c04-46d4-b5b7-9e0caede4942</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fslipper.jpg?alt=media&amp;token=de45f2f8-7aaa-4024-a41a-9bad48a03a02</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fsock.jpg?alt=media&amp;token=6b5e1e15-144b-4d9c-896f-60fbf9637548</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ftie.jpg?alt=media&amp;token=78d56916-d503-477b-a65b-f1dfb8bb527d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ftreadmill.jpg?alt=media&amp;token=debefee1-804a-483e-a4ee-a6fed5092d11</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Ftelevision.jpg?alt=media&amp;token=3cda0c84-7c24-44dc-9200-11267ba7522b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fwalker.jpg?alt=media&amp;token=173cf5df-3b15-4a06-a237-34ad28095ec3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fwallet.jpg?alt=media&amp;token=78b821c1-d3b9-48ff-8ac4-ece122a25971</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fwatch.jpg?alt=media&amp;token=816d702a-aff5-486b-b236-1d208fd2e699</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fweights.jpg?alt=media&amp;token=227b41f9-9ae1-4aae-85f0-95eb036275b2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fwheelchair2.jpg?alt=media&amp;token=4478d59e-cb1b-411e-bb92-a6f099cf380d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bedroom%2Fzipper.jpg?alt=media&amp;token=5388b45d-dd5e-42aa-8f78-ef609536f775</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fbandage.jpg?alt=media&amp;token=c74a6023-410c-4124-9a88-6881e17bb0cc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fblowdryer.jpg?alt=media&amp;token=64b88263-469e-4873-9ce8-794608363e48</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fclippers.jpg?alt=media&amp;token=d5e84b05-fd17-4e9b-be7e-1d04186f9d85</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fcomb.jpg?alt=media&amp;token=b3f36287-4387-4428-9abb-7e1f22e75cc2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fdeodorant.jpg?alt=media&amp;token=91301e55-d9b7-460e-9c42-e1d9464b5962</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Felectricrazor.jpg?alt=media&amp;token=a1363c7d-4d84-4ea4-9d21-2fa445eba1a2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fglasses.jpg?alt=media&amp;token=94959ba6-9f41-4549-a869-30c1d0be9462</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fhamper.jpg?alt=media&amp;token=d76afa18-6997-4a65-bf26-80835e266ca2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fmakeup2.jpg?alt=media&amp;token=ce9ba84d-5283-4431-a6ae-ce6904588b45</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fmat.jpg?alt=media&amp;token=e13d6aa0-2e65-4719-aad1-72b0110c6d1d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fmirror.jpg?alt=media&amp;token=6e3652f8-c8b8-49f2-b5c0-7f964c3e61d5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fmouth.jpg?alt=media&amp;token=9be58e25-69a9-48f3-8c82-b1dad1b9b021</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fnailclipper.jpg?alt=media&amp;token=334b7c48-76de-4530-8b14-96c33bc19323</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fperfume.jpg?alt=media&amp;token=bc8eb82e-95d6-4032-85a6-675e0c0f2761</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fplunger.jpg?alt=media&amp;token=c3f7b3ed-3bed-4681-b373-106c473ce8e9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Frazor.jpg?alt=media&amp;token=f5217ed9-d0c4-4777-a7dc-eb116752ddec</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fscissors.jpg?alt=media&amp;token=e0c8639c-f1eb-45e3-99a3-a2c1f8ce6e47</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fshampoo.jpg?alt=media&amp;token=eb1717b0-50ec-45c1-be41-5e029cc4104d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fsink2.jpg?alt=media&amp;token=33952666-84ae-454c-a443-74e46b4167e0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Fsoap.jpg?alt=media&amp;token=e97f53b4-7e89-46fb-94b6-ed5ab8d0e56f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2FThermometer.jpg?alt=media&amp;token=1a4fde62-0ccd-46ca-a663-1476a35c38a2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Ftoilet.jpg?alt=media&amp;token=ebd8624f-61f9-4f48-8cc2-748748e3caa9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Ftoilettissue.jpg?alt=media&amp;token=4f5efb39-21d5-428f-885b-d2a9c9db265e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Ftoothpastebrushjpg.jpg?alt=media&amp;token=6671cd1a-10b5-44ec-8a81-c1e7a8363758</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Ftoothpaste.jpg?alt=media&amp;token=24ed6345-290b-4493-bab1-ee69fbfe72c5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2Ftowel.jpg?alt=media&amp;token=1023f195-457d-40b9-95d4-45559d769a68</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/epicc-admin.appspot.com/o/Isolated%20Items-%20Bathroom%2FTub.jpg?alt=media&amp;token=78024692-9c56-4dc3-9c52-45006a9f202f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1867,6 +1932,20 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1918,7 +1997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1943,6 +2022,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2258,1850 +2343,2033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34E8FA2-FF73-4343-A99E-79BB470A82FB}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="16" max="16" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="18">
+      <c r="A2" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="5" t="s">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="18">
+      <c r="A3" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="18">
+      <c r="A4" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="5" t="s">
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="18">
+      <c r="A5" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="18">
+      <c r="A6" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="5" t="s">
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="18">
+      <c r="A7" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="18">
+      <c r="A8" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="5" t="s">
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="18">
+      <c r="A9" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="18">
+      <c r="A10" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="5" t="s">
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="18">
+      <c r="A11" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="18">
+      <c r="A12" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" t="s">
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="18">
+      <c r="A13" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="18">
+      <c r="A14" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" t="s">
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="18">
+      <c r="A15" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="A16" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="5" t="s">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="18">
+      <c r="A17" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="18">
+      <c r="A18" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="5" t="s">
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" ht="17">
+      <c r="A19" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="18">
+      <c r="A20" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="5" t="s">
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="18">
+      <c r="A21" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="18">
+      <c r="A22" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="5" t="s">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="18">
+      <c r="A23" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="18">
+      <c r="A24" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="5" t="s">
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="17">
+      <c r="A25" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="18">
+      <c r="A26" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="5" t="s">
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="18">
+      <c r="A27" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" ht="17">
+      <c r="A28" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="5" t="s">
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="18">
+      <c r="A29" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" ht="18">
+      <c r="A30" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="5" t="s">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="18">
+      <c r="A31" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="18">
+      <c r="A32" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="5" t="s">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" ht="18">
+      <c r="A33" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" ht="18">
+      <c r="A34" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="5" t="s">
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="18">
+      <c r="A35" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="18">
+      <c r="A36" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
-      <c r="A19" t="s">
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" ht="18">
+      <c r="A37" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" ht="18">
+      <c r="A38" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" t="s">
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="18">
+      <c r="A39" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="18">
+      <c r="A40" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18">
-      <c r="A21" s="5" t="s">
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" ht="18">
+      <c r="A41" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" ht="18">
+      <c r="A42" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18">
-      <c r="A22" t="s">
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" ht="18">
+      <c r="A43" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
-      <c r="A23" t="s">
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" ht="18">
+      <c r="A45" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" ht="18">
+      <c r="A46" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="5" t="s">
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" ht="17">
+      <c r="A47" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" ht="17">
+      <c r="A48" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17">
-      <c r="A25" s="5" t="s">
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" ht="18">
+      <c r="A49" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" ht="18">
+      <c r="A50" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18">
-      <c r="A26" s="5" t="s">
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" ht="18">
+      <c r="A51" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" ht="18">
+      <c r="A52" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="5" t="s">
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" ht="18">
+      <c r="A53" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" ht="18">
+      <c r="A54" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
-      <c r="A28" s="5" t="s">
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" ht="18">
+      <c r="A55" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" ht="22" customHeight="1">
+      <c r="A56" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="5" t="s">
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" ht="18">
+      <c r="A57" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" ht="18">
+      <c r="A58" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="5" t="s">
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" ht="19" customHeight="1">
+      <c r="A59" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" ht="19" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="5" t="s">
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" ht="21" customHeight="1">
+      <c r="A61" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" ht="17">
+      <c r="A62" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18">
-      <c r="A32" s="5" t="s">
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" ht="18">
+      <c r="A63" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" ht="18">
+      <c r="A64" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="1:16" ht="19" customHeight="1">
+      <c r="A65" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
-      <c r="A34" s="5" t="s">
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16" ht="18">
+      <c r="A66" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" ht="18">
+      <c r="A67" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="18">
-      <c r="A35" s="5" t="s">
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" ht="18">
+      <c r="A68" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" ht="18">
+      <c r="A69" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="18">
-      <c r="A36" s="5" t="s">
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" ht="13" customHeight="1">
+      <c r="A70" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" ht="18">
+      <c r="A71" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="5" t="s">
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" ht="18">
+      <c r="A72" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" ht="18">
+      <c r="A73" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="18">
-      <c r="A38" s="5" t="s">
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" ht="18">
+      <c r="A74" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="1:16" ht="18">
+      <c r="A75" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="5" t="s">
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="1:16" ht="18">
+      <c r="A76" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" ht="18">
+      <c r="A77" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="18">
-      <c r="A40" s="5" t="s">
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="18">
+      <c r="A78" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" ht="18">
+      <c r="A79" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18">
-      <c r="A41" t="s">
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" ht="20" customHeight="1">
+      <c r="A80" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" ht="16" customHeight="1">
+      <c r="A81" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18">
-      <c r="A42" s="5" t="s">
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16" ht="18">
+      <c r="A82" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" ht="18">
+      <c r="A83" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="18">
-      <c r="A43" s="5" t="s">
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" spans="1:16" ht="18">
+      <c r="A84" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16" ht="18">
+      <c r="A85" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="18">
-      <c r="A44" s="5" t="s">
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="1:16" ht="16" customHeight="1">
+      <c r="A86" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" ht="18">
+      <c r="A87" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:16" ht="18" customHeight="1">
+      <c r="A88" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="18">
-      <c r="A45" s="5" t="s">
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="1:16" ht="18">
+      <c r="A89" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" ht="18">
+      <c r="A90" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="18">
-      <c r="A46" s="5" t="s">
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:16" ht="18">
+      <c r="A91" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" ht="18">
+      <c r="A92" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="17">
-      <c r="A47" t="s">
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:16" ht="18">
+      <c r="A93" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:16" ht="18">
+      <c r="A94" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="17">
-      <c r="A48" s="5" t="s">
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="1:16" ht="18">
+      <c r="A95" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="1:16" ht="17">
+      <c r="A96" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="5" t="s">
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="1:16" ht="18">
+      <c r="A97" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16" ht="18">
+      <c r="A98" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="18">
-      <c r="A50" s="5" t="s">
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="1:16" ht="18">
+      <c r="A99" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" spans="1:16" ht="18">
+      <c r="A100" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18">
-      <c r="A51" t="s">
+      <c r="P100" s="7"/>
+    </row>
+    <row r="101" spans="1:16" ht="18">
+      <c r="A101" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="P101" s="7"/>
+    </row>
+    <row r="102" spans="1:16" ht="18">
+      <c r="A102" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="18">
-      <c r="A52" s="5" t="s">
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" ht="18">
+      <c r="A103" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="P103" s="7"/>
+    </row>
+    <row r="104" spans="1:16" ht="17">
+      <c r="A104" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="5" t="s">
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="1:16" ht="18">
+      <c r="A105" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16" ht="18" customHeight="1">
+      <c r="A106" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="1:16" ht="17">
+      <c r="A107" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="5" t="s">
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="1:16" ht="18" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="1:16" ht="19">
+      <c r="A109" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" t="s">
+      <c r="P109" s="9"/>
+    </row>
+    <row r="110" spans="1:16" ht="19">
+      <c r="A110" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="P110" s="9"/>
+    </row>
+    <row r="111" spans="1:16" ht="19" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="22" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="P111" s="9"/>
+    </row>
+    <row r="112" spans="1:16" ht="19">
+      <c r="A112" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="P112" s="9"/>
+    </row>
+    <row r="113" spans="1:16" ht="19">
+      <c r="A113" t="s">
+        <v>517</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="18">
-      <c r="A57" s="5" t="s">
+      <c r="P113" s="9"/>
+    </row>
+    <row r="114" spans="1:16" ht="19">
+      <c r="A114" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="P114" s="9"/>
+    </row>
+    <row r="115" spans="1:16" ht="18">
+      <c r="A115" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="18">
-      <c r="A58" s="5" t="s">
+      <c r="P115" s="9"/>
+    </row>
+    <row r="116" spans="1:16" ht="19">
+      <c r="A116" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="P116" s="10"/>
+    </row>
+    <row r="117" spans="1:16" ht="18">
+      <c r="A117" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="19" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="P117" s="9"/>
+    </row>
+    <row r="118" spans="1:16" ht="19">
+      <c r="A118" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="P118" s="10"/>
+    </row>
+    <row r="119" spans="1:16" ht="19">
+      <c r="A119" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="19" customHeight="1">
-      <c r="A60" s="5" t="s">
+      <c r="P119" s="9"/>
+    </row>
+    <row r="120" spans="1:16" ht="22" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="P120" s="9"/>
+    </row>
+    <row r="121" spans="1:16" ht="19">
+      <c r="A121" t="s">
+        <v>525</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="21" customHeight="1">
-      <c r="A61" s="5" t="s">
+      <c r="P121" s="9"/>
+    </row>
+    <row r="122" spans="1:16" ht="19">
+      <c r="A122" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="P122" s="9"/>
+    </row>
+    <row r="123" spans="1:16" ht="19">
+      <c r="A123" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="17">
-      <c r="A62" s="5" t="s">
+      <c r="P123" s="9"/>
+    </row>
+    <row r="124" spans="1:16" ht="19">
+      <c r="A124" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="P124" s="9"/>
+    </row>
+    <row r="125" spans="1:16" ht="18">
+      <c r="A125" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="18">
-      <c r="A63" t="s">
+      <c r="P125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" ht="24" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="P126" s="10"/>
+    </row>
+    <row r="127" spans="1:16" ht="19">
+      <c r="A127" t="s">
+        <v>531</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="5" t="s">
+      <c r="P127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" ht="19">
+      <c r="A128" t="s">
+        <v>532</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="P128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" ht="18">
+      <c r="A129" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="19" customHeight="1">
-      <c r="A65" s="5" t="s">
+      <c r="P129" s="9"/>
+    </row>
+    <row r="130" spans="1:16" ht="19">
+      <c r="A130" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="P130" s="10"/>
+    </row>
+    <row r="131" spans="1:16" ht="21" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="5" t="s">
+      <c r="P131" s="9"/>
+    </row>
+    <row r="132" spans="1:16" ht="19">
+      <c r="A132" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="P132" s="9"/>
+    </row>
+    <row r="133" spans="1:16" ht="19">
+      <c r="A133" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="5" t="s">
+      <c r="P133" s="9"/>
+    </row>
+    <row r="134" spans="1:16" ht="19">
+      <c r="A134" t="s">
+        <v>536</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="P134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" ht="19">
+      <c r="A135" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="5" t="s">
+      <c r="P135" s="11"/>
+    </row>
+    <row r="136" spans="1:16" ht="19">
+      <c r="A136" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="13" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18">
-      <c r="A71" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18">
-      <c r="A72" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18">
-      <c r="A73" t="s">
-        <v>291</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18">
-      <c r="A74" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18">
-      <c r="A75" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18">
-      <c r="A76" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18">
-      <c r="A77" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18">
-      <c r="A78" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18">
-      <c r="A79" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="16" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18">
-      <c r="A82" t="s">
-        <v>309</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18">
-      <c r="A83" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18">
-      <c r="A84" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18">
-      <c r="A85" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18">
-      <c r="A87" t="s">
-        <v>319</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18">
-      <c r="A89" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18">
-      <c r="A90" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18">
-      <c r="A91" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18">
-      <c r="A92" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18">
-      <c r="A93" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18">
-      <c r="A94" t="s">
-        <v>333</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18">
-      <c r="A95" t="s">
-        <v>335</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18">
-      <c r="A96" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="17">
-      <c r="A97" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18">
-      <c r="A98" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18">
-      <c r="A99" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18">
-      <c r="A100" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18">
-      <c r="A101" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18">
-      <c r="A102" t="s">
-        <v>349</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18">
-      <c r="A103" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="18">
-      <c r="A104" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="17">
-      <c r="A105" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17">
-      <c r="A107" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="18" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="19">
-      <c r="A109" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="19">
-      <c r="A110" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="19" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="19">
-      <c r="A112" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="19">
-      <c r="A113" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="19">
-      <c r="A114" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18">
-      <c r="A115" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="19">
-      <c r="A116" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="18">
-      <c r="A117" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="19">
-      <c r="A118" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="19">
-      <c r="A119" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="22" customHeight="1">
-      <c r="A120" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="19">
-      <c r="A121" t="s">
-        <v>387</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="19">
-      <c r="A122" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="19">
-      <c r="A123" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="19">
-      <c r="A124" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="18">
-      <c r="A125" t="s">
-        <v>395</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="24" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="19">
-      <c r="A127" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="19">
-      <c r="A128" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18">
-      <c r="A129" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="19">
-      <c r="A130" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="21" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="19">
-      <c r="A132" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="19">
-      <c r="A133" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="19">
-      <c r="A134" t="s">
-        <v>413</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="19">
-      <c r="A135" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="19">
-      <c r="A136" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="18">
+      <c r="P136" s="9"/>
+    </row>
+    <row r="137" spans="1:16" ht="18">
       <c r="A137" s="5" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="19">
+      <c r="P137" s="9"/>
+    </row>
+    <row r="138" spans="1:16" ht="19">
       <c r="A138" s="5" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="19">
+        <v>282</v>
+      </c>
+      <c r="P138" s="10"/>
+    </row>
+    <row r="139" spans="1:16" ht="19">
       <c r="A139" s="5" t="s">
-        <v>422</v>
+        <v>541</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="19">
+        <v>283</v>
+      </c>
+      <c r="P139" s="9"/>
+    </row>
+    <row r="140" spans="1:16" ht="19">
       <c r="A140" s="5" t="s">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="19">
-      <c r="A141" s="5" t="s">
-        <v>426</v>
+        <v>284</v>
+      </c>
+      <c r="P140" s="9"/>
+    </row>
+    <row r="141" spans="1:16" ht="19">
+      <c r="A141" t="s">
+        <v>543</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="19">
+        <v>285</v>
+      </c>
+      <c r="P141" s="9"/>
+    </row>
+    <row r="142" spans="1:16" ht="19">
       <c r="A142" s="5" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="19">
+        <v>286</v>
+      </c>
+      <c r="P142" s="9"/>
+    </row>
+    <row r="143" spans="1:16" ht="19">
       <c r="A143" s="5" t="s">
-        <v>430</v>
+        <v>545</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="19">
+        <v>287</v>
+      </c>
+      <c r="P143" s="9"/>
+    </row>
+    <row r="144" spans="1:16" ht="19">
       <c r="A144" s="5" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="21" customHeight="1">
+        <v>288</v>
+      </c>
+      <c r="P144" s="9"/>
+    </row>
+    <row r="145" spans="1:16" ht="21" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>434</v>
+        <v>547</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="19">
+        <v>289</v>
+      </c>
+      <c r="P145" s="9"/>
+    </row>
+    <row r="146" spans="1:16" ht="19">
       <c r="A146" s="5" t="s">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="20" customHeight="1">
+        <v>290</v>
+      </c>
+      <c r="P146" s="9"/>
+    </row>
+    <row r="147" spans="1:16" ht="20" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>438</v>
+        <v>549</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="19">
+        <v>291</v>
+      </c>
+      <c r="P147" s="9"/>
+    </row>
+    <row r="148" spans="1:16" ht="19">
       <c r="A148" s="5" t="s">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="19">
-      <c r="A149" t="s">
-        <v>442</v>
+        <v>292</v>
+      </c>
+      <c r="P148" s="9"/>
+    </row>
+    <row r="149" spans="1:16" ht="19">
+      <c r="A149" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="14" customHeight="1">
+        <v>293</v>
+      </c>
+      <c r="P149" s="9"/>
+    </row>
+    <row r="150" spans="1:16" ht="14" customHeight="1">
       <c r="A150" s="5" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="19">
+        <v>294</v>
+      </c>
+      <c r="P150" s="11"/>
+    </row>
+    <row r="151" spans="1:16" ht="19">
       <c r="A151" s="5" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="19">
+        <v>295</v>
+      </c>
+      <c r="P151" s="9"/>
+    </row>
+    <row r="152" spans="1:16" ht="19">
       <c r="A152" s="5" t="s">
-        <v>447</v>
+        <v>554</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="19">
+        <v>296</v>
+      </c>
+      <c r="P152" s="9"/>
+    </row>
+    <row r="153" spans="1:16" ht="19">
       <c r="A153" s="5" t="s">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="19">
+        <v>297</v>
+      </c>
+      <c r="P153" s="9"/>
+    </row>
+    <row r="154" spans="1:16" ht="19">
       <c r="A154" s="5" t="s">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="19">
+        <v>298</v>
+      </c>
+      <c r="P154" s="9"/>
+    </row>
+    <row r="155" spans="1:16" ht="19">
       <c r="A155" s="5" t="s">
-        <v>453</v>
+        <v>557</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="19">
+        <v>299</v>
+      </c>
+      <c r="P155" s="9"/>
+    </row>
+    <row r="156" spans="1:16" ht="19">
       <c r="A156" s="5" t="s">
-        <v>455</v>
+        <v>558</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="19">
+        <v>300</v>
+      </c>
+      <c r="P156" s="9"/>
+    </row>
+    <row r="157" spans="1:16" ht="19">
       <c r="A157" s="5" t="s">
-        <v>457</v>
+        <v>559</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="19">
-      <c r="A158" s="5" t="s">
-        <v>459</v>
+        <v>301</v>
+      </c>
+      <c r="P157" s="9"/>
+    </row>
+    <row r="158" spans="1:16" ht="19">
+      <c r="A158" t="s">
+        <v>560</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="19">
+        <v>302</v>
+      </c>
+      <c r="P158" s="9"/>
+    </row>
+    <row r="159" spans="1:16" ht="19">
       <c r="A159" s="5" t="s">
-        <v>461</v>
+        <v>561</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="19">
+        <v>303</v>
+      </c>
+      <c r="P159" s="9"/>
+    </row>
+    <row r="160" spans="1:16" ht="19">
       <c r="A160" s="5" t="s">
-        <v>463</v>
+        <v>562</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="19">
+        <v>304</v>
+      </c>
+      <c r="P160" s="11"/>
+    </row>
+    <row r="161" spans="1:16" ht="19">
       <c r="A161" s="5" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="19">
+        <v>305</v>
+      </c>
+      <c r="P161" s="9"/>
+    </row>
+    <row r="162" spans="1:16" ht="19">
       <c r="A162" s="5" t="s">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="19">
+        <v>306</v>
+      </c>
+      <c r="P162" s="9"/>
+    </row>
+    <row r="163" spans="1:16" ht="19">
       <c r="A163" s="5" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="19">
+        <v>307</v>
+      </c>
+      <c r="P163" s="9"/>
+    </row>
+    <row r="164" spans="1:16" ht="19">
       <c r="A164" s="5" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="19">
-      <c r="A165" t="s">
-        <v>473</v>
+        <v>308</v>
+      </c>
+      <c r="P164" s="9"/>
+    </row>
+    <row r="165" spans="1:16" ht="19">
+      <c r="A165" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="19">
+        <v>309</v>
+      </c>
+      <c r="P165" s="9"/>
+    </row>
+    <row r="166" spans="1:16" ht="19">
       <c r="A166" s="5" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="19">
+        <v>310</v>
+      </c>
+      <c r="P166" s="9"/>
+    </row>
+    <row r="167" spans="1:16" ht="19">
       <c r="A167" s="5" t="s">
-        <v>477</v>
+        <v>569</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="19">
+        <v>311</v>
+      </c>
+      <c r="P167" s="9"/>
+    </row>
+    <row r="168" spans="1:16" ht="19">
       <c r="A168" s="5" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="16" customHeight="1">
-      <c r="A169" t="s">
-        <v>481</v>
+        <v>312</v>
+      </c>
+      <c r="P168" s="9"/>
+    </row>
+    <row r="169" spans="1:16" ht="16" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="24" customHeight="1">
+        <v>313</v>
+      </c>
+      <c r="P169" s="9"/>
+    </row>
+    <row r="170" spans="1:16" ht="24" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="19">
-      <c r="A171" s="5" t="s">
-        <v>485</v>
+        <v>314</v>
+      </c>
+      <c r="P170" s="9"/>
+    </row>
+    <row r="171" spans="1:16" ht="19">
+      <c r="A171" t="s">
+        <v>573</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="19">
-      <c r="A172" s="5" t="s">
-        <v>487</v>
+        <v>315</v>
+      </c>
+      <c r="P171" s="9"/>
+    </row>
+    <row r="172" spans="1:16" ht="19">
+      <c r="A172" t="s">
+        <v>574</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="19">
+        <v>316</v>
+      </c>
+      <c r="P172" s="9"/>
+    </row>
+    <row r="173" spans="1:16" ht="19">
       <c r="A173" s="5" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="19">
+        <v>317</v>
+      </c>
+      <c r="P173" s="9"/>
+    </row>
+    <row r="174" spans="1:16" ht="19">
       <c r="A174" s="5" t="s">
-        <v>491</v>
+        <v>576</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="23" customHeight="1">
+        <v>318</v>
+      </c>
+      <c r="P174" s="11"/>
+    </row>
+    <row r="175" spans="1:16" ht="23" customHeight="1">
       <c r="A175" s="5" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="19">
+        <v>319</v>
+      </c>
+      <c r="P175" s="9"/>
+    </row>
+    <row r="176" spans="1:16" ht="19">
       <c r="A176" s="5" t="s">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="19">
+        <v>320</v>
+      </c>
+      <c r="P176" s="9"/>
+    </row>
+    <row r="177" spans="1:16" ht="19">
       <c r="A177" s="5" t="s">
-        <v>497</v>
+        <v>579</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="19">
+        <v>321</v>
+      </c>
+      <c r="P177" s="9"/>
+    </row>
+    <row r="178" spans="1:16" ht="19">
       <c r="A178" s="5" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="22" customHeight="1">
+        <v>153</v>
+      </c>
+      <c r="P178" s="10"/>
+    </row>
+    <row r="179" spans="1:16" ht="22" customHeight="1">
       <c r="A179" s="5" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="19">
+        <v>322</v>
+      </c>
+      <c r="P179" s="5"/>
+    </row>
+    <row r="180" spans="1:16" ht="19">
       <c r="A180" s="5" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="19">
+        <v>323</v>
+      </c>
+      <c r="P180" s="5"/>
+    </row>
+    <row r="181" spans="1:16" ht="19">
       <c r="A181" s="5" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="19">
+        <v>324</v>
+      </c>
+      <c r="P181" s="11"/>
+    </row>
+    <row r="182" spans="1:16" ht="19">
       <c r="A182" s="5" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="19">
+        <v>325</v>
+      </c>
+      <c r="P182" s="11"/>
+    </row>
+    <row r="183" spans="1:16" ht="19">
       <c r="A183" s="5" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="20" customHeight="1">
+        <v>326</v>
+      </c>
+      <c r="P183" s="9"/>
+    </row>
+    <row r="184" spans="1:16" ht="20" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="24" customHeight="1">
+        <v>327</v>
+      </c>
+      <c r="P184" s="9"/>
+    </row>
+    <row r="185" spans="1:16" ht="24" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="19">
+        <v>328</v>
+      </c>
+      <c r="P185" s="9"/>
+    </row>
+    <row r="186" spans="1:16" ht="19">
       <c r="A186" s="5" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="19">
+        <v>329</v>
+      </c>
+      <c r="P186" s="9"/>
+    </row>
+    <row r="187" spans="1:16" ht="19">
       <c r="A187" s="5" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="19">
+        <v>330</v>
+      </c>
+      <c r="P187" s="9"/>
+    </row>
+    <row r="188" spans="1:16" ht="19">
       <c r="A188" s="5" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="19">
+        <v>331</v>
+      </c>
+      <c r="P188" s="9"/>
+    </row>
+    <row r="189" spans="1:16" ht="19">
       <c r="A189" s="5" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="19">
+        <v>332</v>
+      </c>
+      <c r="P189" s="9"/>
+    </row>
+    <row r="190" spans="1:16" ht="19">
       <c r="A190" s="5" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="25" customHeight="1">
+        <v>333</v>
+      </c>
+      <c r="P190" s="11"/>
+    </row>
+    <row r="191" spans="1:16" ht="25" customHeight="1">
       <c r="A191" s="5" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="20" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="P191" s="9"/>
+    </row>
+    <row r="192" spans="1:16" ht="20" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>275</v>
+        <v>591</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="19">
+        <v>211</v>
+      </c>
+      <c r="P192" s="9"/>
+    </row>
+    <row r="193" spans="1:16" ht="19">
       <c r="A193" s="5" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="19">
+        <v>335</v>
+      </c>
+      <c r="P193" s="9"/>
+    </row>
+    <row r="194" spans="1:16" ht="19">
       <c r="A194" s="5" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="19">
+        <v>336</v>
+      </c>
+      <c r="P194" s="9"/>
+    </row>
+    <row r="195" spans="1:16" ht="19">
       <c r="A195" s="5" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="19">
+        <v>337</v>
+      </c>
+      <c r="P195" s="11"/>
+    </row>
+    <row r="196" spans="1:16" ht="19">
       <c r="A196" s="5" t="s">
-        <v>315</v>
+        <v>595</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="19">
+        <v>231</v>
+      </c>
+      <c r="P196" s="11"/>
+    </row>
+    <row r="197" spans="1:16" ht="19">
       <c r="A197" s="5" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="19">
+        <v>338</v>
+      </c>
+      <c r="P197" s="9"/>
+    </row>
+    <row r="198" spans="1:16" ht="19">
       <c r="A198" s="5" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="19">
+        <v>339</v>
+      </c>
+      <c r="P198" s="9"/>
+    </row>
+    <row r="199" spans="1:16" ht="19">
       <c r="A199" s="5" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="27" customHeight="1">
+        <v>340</v>
+      </c>
+      <c r="P199" s="9"/>
+    </row>
+    <row r="200" spans="1:16" ht="27" customHeight="1">
       <c r="A200" s="5" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="19">
+        <v>341</v>
+      </c>
+      <c r="P200" s="11"/>
+    </row>
+    <row r="201" spans="1:16" ht="19">
       <c r="A201" s="5" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="24" customHeight="1">
+      <c r="P201" s="9"/>
+    </row>
+    <row r="202" spans="1:16" ht="24" customHeight="1">
       <c r="A202" s="5" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="18" customHeight="1">
-      <c r="A203" t="s">
-        <v>542</v>
+        <v>342</v>
+      </c>
+      <c r="P202" s="9"/>
+    </row>
+    <row r="203" spans="1:16" ht="18" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="22" customHeight="1">
+        <v>343</v>
+      </c>
+      <c r="P203" s="9"/>
+    </row>
+    <row r="204" spans="1:16" ht="22" customHeight="1">
       <c r="A204" s="5" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="19">
+        <v>344</v>
+      </c>
+      <c r="P204" s="9"/>
+    </row>
+    <row r="205" spans="1:16" ht="19">
       <c r="A205" s="5" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="19">
-      <c r="A206" s="5" t="s">
-        <v>548</v>
+        <v>345</v>
+      </c>
+      <c r="P205" s="9"/>
+    </row>
+    <row r="206" spans="1:16" ht="19">
+      <c r="A206" t="s">
+        <v>605</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>549</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="P206" s="9"/>
+    </row>
+    <row r="207" spans="1:16" ht="18">
+      <c r="P207" s="11"/>
+    </row>
+    <row r="208" spans="1:16" ht="18">
+      <c r="P208" s="11"/>
+    </row>
+    <row r="209" spans="16:16" ht="18">
+      <c r="P209" s="9"/>
+    </row>
+    <row r="210" spans="16:16" ht="18">
+      <c r="P210" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{CBC7391D-608C-7F48-A00A-C6BE1B7424D7}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{AD5429A8-D7CC-D644-833E-269FEC9D6024}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F4931B99-127A-AA4F-8B27-8F40616AB67F}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{D12B488D-7C47-334C-956F-0CA7B8EEAF4C}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{B162D2E1-9495-D446-85DB-D030BF5BEAFD}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{0F7BF1CC-DCB0-1845-B170-4A1BCA35A343}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{295515D3-3515-C242-8246-68646F4C9C58}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{7F505F10-B072-D949-84C1-5B3427DF9D41}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{04D89023-EAE8-9045-8EEF-6575590B7874}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{A0DFF485-2AAD-E34E-B2E3-D84607222509}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{EFA5C6B8-5EEB-1243-8ACD-FFB85BF284C5}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{B2B2AD41-177C-8F41-A254-A0584641D35D}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{87F267AC-C4D8-2C4A-BE8D-EEF49654B760}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{B33E82CF-BDC0-384D-B58F-2015B32A0301}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{6AB522F0-1AE0-864B-8553-4CD3407E3697}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{37C60C6B-D9FD-DD4B-90EC-440465226D67}"/>
-    <hyperlink ref="A21" r:id="rId17" xr:uid="{477E4A9B-7514-064E-BCA6-821B248769DD}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{0D9C2513-0FA6-2943-827B-4DF8135BD85D}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{355790F6-4758-494B-9C27-EBBF9D400B2A}"/>
-    <hyperlink ref="A26" r:id="rId20" xr:uid="{1883C259-C7D5-A74B-B648-DFE2E4BBBB4E}"/>
-    <hyperlink ref="A27" r:id="rId21" xr:uid="{6C8E2084-F197-1448-9819-297F6E377085}"/>
-    <hyperlink ref="A28" r:id="rId22" xr:uid="{A6CCA2B6-1D34-A94B-91A8-F71FD7B7E4EB}"/>
-    <hyperlink ref="A29" r:id="rId23" xr:uid="{7882A64F-676E-B541-AF73-A8027A01C0E9}"/>
-    <hyperlink ref="A30" r:id="rId24" xr:uid="{40AFBF27-53C1-3645-9989-B7A4CA21FD91}"/>
-    <hyperlink ref="A31" r:id="rId25" xr:uid="{3FF86135-4BD5-9B41-83D8-A60216FDF7EA}"/>
-    <hyperlink ref="A32" r:id="rId26" xr:uid="{B27F993A-6AE0-AB43-9D00-4A67DFC5CC08}"/>
-    <hyperlink ref="A33" r:id="rId27" xr:uid="{7347504A-AD5B-C24E-8494-474CD0B4F412}"/>
-    <hyperlink ref="A34" r:id="rId28" xr:uid="{1024002A-997E-0842-BA80-7675E4DA1F8E}"/>
-    <hyperlink ref="A35" r:id="rId29" xr:uid="{9306791E-8803-0141-A947-82303A884163}"/>
-    <hyperlink ref="A36" r:id="rId30" xr:uid="{0967F433-1B79-DC47-B203-B083A8805636}"/>
-    <hyperlink ref="A37" r:id="rId31" xr:uid="{06C851F1-7989-6A40-8581-10577AF4A525}"/>
-    <hyperlink ref="A38" r:id="rId32" xr:uid="{14461E1E-556A-B946-AACB-3A6ED65C39E4}"/>
-    <hyperlink ref="A39" r:id="rId33" xr:uid="{0F1C3B2D-8744-C04A-B582-031E79B5D33E}"/>
-    <hyperlink ref="A40" r:id="rId34" xr:uid="{C3CD80F3-12A4-7C4C-B50C-1D23612F9062}"/>
-    <hyperlink ref="A42" r:id="rId35" xr:uid="{6B15D718-1FDF-684F-8C81-DE685B9D46EA}"/>
-    <hyperlink ref="A43" r:id="rId36" xr:uid="{13D7A708-ADB7-734C-8765-C5DC5651AC08}"/>
-    <hyperlink ref="A44" r:id="rId37" xr:uid="{51E2645C-F336-7444-9C5A-9760A7033B23}"/>
-    <hyperlink ref="A45" r:id="rId38" xr:uid="{B14A3A5B-12EE-3049-9299-B24431CA32C8}"/>
-    <hyperlink ref="A46" r:id="rId39" xr:uid="{22E1D3AB-AC13-8D47-A1E1-94077D085CF0}"/>
-    <hyperlink ref="A48" r:id="rId40" xr:uid="{6D2E3DE1-8CC6-F14D-A866-A3E1690EE9A7}"/>
-    <hyperlink ref="A49" r:id="rId41" xr:uid="{9214919D-1E96-D14C-B2B9-325D0739C4CF}"/>
-    <hyperlink ref="A50" r:id="rId42" xr:uid="{79BFE97F-CD45-3440-A3E9-4BFB2F378195}"/>
-    <hyperlink ref="A52" r:id="rId43" xr:uid="{9F0978D7-36B0-6647-A4FF-387C6DAACDD9}"/>
-    <hyperlink ref="A53" r:id="rId44" xr:uid="{542E3C2F-61A3-FE44-AA83-FAF82E12CCC8}"/>
-    <hyperlink ref="A54" r:id="rId45" xr:uid="{070410A0-4DEF-1B4D-98DC-6E56493C3242}"/>
-    <hyperlink ref="A56" r:id="rId46" xr:uid="{CFF5E665-9B66-B041-96BC-DEC0542AA066}"/>
-    <hyperlink ref="A57" r:id="rId47" xr:uid="{C3495C7D-8F48-EB4F-BE4C-40895E6B1216}"/>
-    <hyperlink ref="A58" r:id="rId48" xr:uid="{434EB657-CC7F-A047-81BA-65429C1E0794}"/>
-    <hyperlink ref="A59" r:id="rId49" xr:uid="{7D928D41-E4AB-CE47-BFC6-F7036CFD1264}"/>
-    <hyperlink ref="A60" r:id="rId50" xr:uid="{ACA6D0A4-7CB7-2840-8B27-3955DCD1F2E8}"/>
-    <hyperlink ref="A61" r:id="rId51" xr:uid="{E4374792-DA96-934A-88AC-1CF076252AF5}"/>
-    <hyperlink ref="A62" r:id="rId52" xr:uid="{EB345485-14B2-FB46-AF40-9C135BFCBD41}"/>
-    <hyperlink ref="A64" r:id="rId53" xr:uid="{FB20000C-35A3-8D41-BB2D-132F07235AFD}"/>
-    <hyperlink ref="A65" r:id="rId54" xr:uid="{8E35B720-8B6C-A842-BA1D-4181A04099D9}"/>
-    <hyperlink ref="A66" r:id="rId55" xr:uid="{2D227807-EB3E-3942-A52A-B6C251D4643D}"/>
-    <hyperlink ref="A67" r:id="rId56" xr:uid="{36B30179-C3B0-4740-B1D9-F6350609D812}"/>
-    <hyperlink ref="A68" r:id="rId57" xr:uid="{1C2BCEDE-BE26-4049-A82A-41C94E17A9AC}"/>
-    <hyperlink ref="A69" r:id="rId58" xr:uid="{98084A1F-CFF5-9649-85E0-DF7D1A0BE5DB}"/>
-    <hyperlink ref="A70" r:id="rId59" xr:uid="{465E8D90-A857-B349-91DB-DF394391F115}"/>
-    <hyperlink ref="A71" r:id="rId60" xr:uid="{827998BD-1E77-5940-9BF8-16CC6744330E}"/>
-    <hyperlink ref="A72" r:id="rId61" xr:uid="{6250A507-EBA3-464F-8271-7032D4028135}"/>
-    <hyperlink ref="A74" r:id="rId62" xr:uid="{C7A65A38-6ADE-234E-A9F5-18145D90B286}"/>
-    <hyperlink ref="A75" r:id="rId63" xr:uid="{E3740D1B-FA0C-1344-A50A-2872FD50EA24}"/>
-    <hyperlink ref="A76" r:id="rId64" xr:uid="{F650FD99-200D-8341-821F-70636BDD4EE4}"/>
-    <hyperlink ref="A77" r:id="rId65" xr:uid="{3A9D2E46-DE61-8547-966F-EDB7E7C6CAAD}"/>
-    <hyperlink ref="A78" r:id="rId66" xr:uid="{F3FE77B8-5119-2247-8638-BB5DD614C759}"/>
-    <hyperlink ref="A79" r:id="rId67" xr:uid="{81F0C22A-DA7B-084E-A9C1-AC825C7D1C8A}"/>
-    <hyperlink ref="A80" r:id="rId68" xr:uid="{8750156F-EF48-3A40-A59E-9EC8D6DC7A75}"/>
-    <hyperlink ref="A81" r:id="rId69" xr:uid="{8C7DE18B-DBC8-3846-87BB-97EC6FF19D85}"/>
-    <hyperlink ref="A83" r:id="rId70" xr:uid="{46E17E20-D85A-9A4F-93D6-179273C17EF5}"/>
-    <hyperlink ref="A84" r:id="rId71" xr:uid="{46B9BEA9-B28F-4F44-B921-71B7DFA68C99}"/>
-    <hyperlink ref="A85" r:id="rId72" xr:uid="{CF70687C-0FFB-3B4B-A073-50F72A58F22A}"/>
-    <hyperlink ref="A86" r:id="rId73" xr:uid="{BD2B3CFA-53A4-574A-91EA-5AC0FE0108D5}"/>
-    <hyperlink ref="A88" r:id="rId74" xr:uid="{81808778-327F-5741-9460-EC9A02AE0B29}"/>
-    <hyperlink ref="A89" r:id="rId75" xr:uid="{166D1A27-2358-3541-8429-E3E258A60D2B}"/>
-    <hyperlink ref="A90" r:id="rId76" xr:uid="{4C9EA44E-6666-A147-AA00-BC2DCDECCF24}"/>
-    <hyperlink ref="A91" r:id="rId77" xr:uid="{463C9BEC-2E1E-E245-9FE6-6CEB1EA424C9}"/>
-    <hyperlink ref="A92" r:id="rId78" xr:uid="{B458B624-271C-284A-8FAF-B31F7A561C18}"/>
-    <hyperlink ref="A93" r:id="rId79" xr:uid="{DA397FDE-0E39-1C43-B99A-6F3D2C49B1C5}"/>
-    <hyperlink ref="A97" r:id="rId80" xr:uid="{66393509-C79B-9441-A496-6B22C8713694}"/>
-    <hyperlink ref="A96" r:id="rId81" xr:uid="{E06C2DD4-BDCA-FA4D-A9BD-66B528C6EDDD}"/>
-    <hyperlink ref="A98" r:id="rId82" xr:uid="{631F23BF-2264-1C45-A2C9-C4DE8E442E94}"/>
-    <hyperlink ref="A99" r:id="rId83" xr:uid="{4F32E01A-F885-734A-BFCE-65405A0FDF2D}"/>
-    <hyperlink ref="A100" r:id="rId84" xr:uid="{56FE48B5-7F0A-C145-852B-04415B5B10AB}"/>
-    <hyperlink ref="A101" r:id="rId85" xr:uid="{6333341F-3668-464F-8BA9-1DA9F755CDE4}"/>
-    <hyperlink ref="A103" r:id="rId86" xr:uid="{BF907761-E99D-D94F-9ED7-9E1C322F0A77}"/>
-    <hyperlink ref="A104" r:id="rId87" xr:uid="{4E861FFD-EA41-9048-94BE-970A37EAF089}"/>
-    <hyperlink ref="A105" r:id="rId88" xr:uid="{5FAFE0FC-63AA-2A4A-AD37-4FA790FAF5EF}"/>
-    <hyperlink ref="A106" r:id="rId89" xr:uid="{674A0405-E701-C045-885A-C19E02BE9F9E}"/>
-    <hyperlink ref="A107" r:id="rId90" xr:uid="{4F237350-16EB-5949-997D-DD83400CDC7A}"/>
-    <hyperlink ref="A108" r:id="rId91" xr:uid="{49E13613-3AB7-2341-B83E-5AB38BFFEA1D}"/>
-    <hyperlink ref="A109" r:id="rId92" xr:uid="{BC78A37A-C536-034F-8527-C27554C26A55}"/>
-    <hyperlink ref="A110" r:id="rId93" xr:uid="{EC087418-CC7A-404E-92A3-FA74AAE817A9}"/>
-    <hyperlink ref="A111" r:id="rId94" xr:uid="{C3BA1E79-2B4B-214F-B6D3-E487D2921877}"/>
-    <hyperlink ref="A112" r:id="rId95" xr:uid="{FB6285C8-165B-3749-877B-5D633CD176E7}"/>
-    <hyperlink ref="A113" r:id="rId96" xr:uid="{7F033E0C-F1D0-0042-9C08-38A2FEA4850A}"/>
-    <hyperlink ref="A114" r:id="rId97" xr:uid="{29D076D2-2CBC-BC42-9B64-C73E4B606234}"/>
-    <hyperlink ref="A116" r:id="rId98" xr:uid="{29914E43-768D-7A42-B30C-54346713DBD2}"/>
-    <hyperlink ref="A117" r:id="rId99" xr:uid="{1CF47B88-CA02-7C44-A407-88B13AF19C4C}"/>
-    <hyperlink ref="A118" r:id="rId100" xr:uid="{DFBEFEA2-7E0B-A04F-93B9-ACF81FF2E818}"/>
-    <hyperlink ref="A119" r:id="rId101" xr:uid="{0EEEF6F3-A6FA-E649-AD40-C1F4B733601B}"/>
-    <hyperlink ref="A120" r:id="rId102" xr:uid="{04E968F4-44B3-784B-AE15-411A1428AE44}"/>
-    <hyperlink ref="A122" r:id="rId103" xr:uid="{135564CA-8A22-D945-BDCE-D7383403F977}"/>
-    <hyperlink ref="A123" r:id="rId104" xr:uid="{B59E67B1-A1A9-1740-AB54-8BA03BF2B498}"/>
-    <hyperlink ref="A124" r:id="rId105" xr:uid="{1A8A6444-6119-B946-9565-FD0B698C774C}"/>
-    <hyperlink ref="A126" r:id="rId106" xr:uid="{ECF035BE-5050-0544-87B0-6B263149E079}"/>
-    <hyperlink ref="A127" r:id="rId107" xr:uid="{6DA8DAFA-9DC9-334D-B222-1D30B7555E02}"/>
-    <hyperlink ref="A128" r:id="rId108" xr:uid="{724F1E89-1FE3-3240-B1CE-A9FCD9E7FAC7}"/>
-    <hyperlink ref="A129" r:id="rId109" xr:uid="{A686A91F-8062-7E46-9E7E-A64BD895EA8D}"/>
-    <hyperlink ref="A130" r:id="rId110" xr:uid="{5068C983-FA6A-184A-850D-3A2F4CE44871}"/>
-    <hyperlink ref="A131" r:id="rId111" xr:uid="{D890E930-C1A4-0540-80D2-447645172A2D}"/>
-    <hyperlink ref="A132" r:id="rId112" xr:uid="{2323B17A-EE43-4941-B95D-7ED5F6B42CF9}"/>
-    <hyperlink ref="A133" r:id="rId113" xr:uid="{CFAAA15F-4F8B-114F-AA87-573C1FEBDEF4}"/>
-    <hyperlink ref="A135" r:id="rId114" xr:uid="{D358EAE1-C8E9-1B4F-BE18-F55297174AAB}"/>
-    <hyperlink ref="A136" r:id="rId115" xr:uid="{42B1E228-C1AF-C149-AC74-DFC069B698FD}"/>
-    <hyperlink ref="A137" r:id="rId116" xr:uid="{F3A36557-96EA-2B49-A082-3351940677E7}"/>
-    <hyperlink ref="A138" r:id="rId117" xr:uid="{0F04C0E2-E232-D14F-B21E-20A0E6762027}"/>
-    <hyperlink ref="A139" r:id="rId118" xr:uid="{854C0CF8-3450-5040-BC71-2AA96D8E518F}"/>
-    <hyperlink ref="A140" r:id="rId119" xr:uid="{E426582C-C763-E04E-BA2C-7DEE955AC6AF}"/>
-    <hyperlink ref="A141" r:id="rId120" xr:uid="{2D38CD00-13D5-3F4C-8862-95A903167FF4}"/>
-    <hyperlink ref="A142" r:id="rId121" xr:uid="{088492ED-986E-494B-8A2A-CA2B06A1A088}"/>
-    <hyperlink ref="A143" r:id="rId122" xr:uid="{1BC29ED9-6DB0-254C-99A9-F4680D2D2CF2}"/>
-    <hyperlink ref="A144" r:id="rId123" xr:uid="{921CFA77-3A21-9147-93D0-4F744909C8E3}"/>
-    <hyperlink ref="A145" r:id="rId124" xr:uid="{0E50CE5A-86F9-B846-BFC3-475534A9DF5C}"/>
-    <hyperlink ref="A146" r:id="rId125" xr:uid="{2940D7B6-9206-CB46-92FA-9D136505FEFE}"/>
-    <hyperlink ref="A147" r:id="rId126" xr:uid="{F14E519E-66BD-5C4F-92A2-8819754EA891}"/>
-    <hyperlink ref="A148" r:id="rId127" xr:uid="{E0B5E89E-EEE5-324A-9F86-D1A66A03A818}"/>
-    <hyperlink ref="A150" r:id="rId128" xr:uid="{28390CB3-2D7C-2C4F-BFFB-5F91369E6A72}"/>
-    <hyperlink ref="A151" r:id="rId129" xr:uid="{6E97A80F-5844-DB4F-80BF-0E3F7F7B77C3}"/>
-    <hyperlink ref="A152" r:id="rId130" xr:uid="{25C040E2-7822-5C4E-A2C9-F95EA1F4BD0C}"/>
-    <hyperlink ref="A153" r:id="rId131" xr:uid="{E7DDB68E-7D31-B04E-ABBA-CCBB063F5A41}"/>
-    <hyperlink ref="A154" r:id="rId132" xr:uid="{95494313-8FA6-7446-896E-AEB36C3ABE73}"/>
-    <hyperlink ref="A155" r:id="rId133" xr:uid="{C7BBB9DE-9C87-804A-8773-3FBAB5CFABE5}"/>
-    <hyperlink ref="A156" r:id="rId134" xr:uid="{19A6C085-E3D0-A549-86A8-E68C015B0EEB}"/>
-    <hyperlink ref="A157" r:id="rId135" xr:uid="{83E5DAC8-8CFF-C549-9641-7B4D4286B79D}"/>
-    <hyperlink ref="A158" r:id="rId136" xr:uid="{1BF750D7-0232-E643-B011-A7A6F0D28C2B}"/>
-    <hyperlink ref="A159" r:id="rId137" xr:uid="{826D9847-E1B3-3440-9098-88D375F190FD}"/>
-    <hyperlink ref="A160" r:id="rId138" xr:uid="{11FBABD4-691F-7B4B-BB8E-4A67C0CE5EE7}"/>
-    <hyperlink ref="A161" r:id="rId139" xr:uid="{0074D452-5EC2-D840-85DE-C2D0B64EED70}"/>
-    <hyperlink ref="A162" r:id="rId140" xr:uid="{7D685A16-707B-584E-8B60-CBD1F68B1384}"/>
-    <hyperlink ref="A163" r:id="rId141" xr:uid="{A53BDEC5-9FAC-F44B-B73B-3DBEEC63BC56}"/>
-    <hyperlink ref="A164" r:id="rId142" xr:uid="{5CD75683-FDE5-B348-83B5-EA20C042EDEA}"/>
-    <hyperlink ref="A166" r:id="rId143" xr:uid="{540782AA-0397-7C47-9A12-7B33B106AACD}"/>
-    <hyperlink ref="A167" r:id="rId144" xr:uid="{BF397B32-0B97-5B45-B807-7839B382E932}"/>
-    <hyperlink ref="A168" r:id="rId145" xr:uid="{D747B9F2-C61A-6547-B897-B6771EC9EC86}"/>
-    <hyperlink ref="A170" r:id="rId146" xr:uid="{31424076-4377-454F-8FD7-5CFB946470B8}"/>
-    <hyperlink ref="A171" r:id="rId147" xr:uid="{210F5F1F-5A3F-A74F-B7A2-55F26638CE7F}"/>
-    <hyperlink ref="A172" r:id="rId148" xr:uid="{C92410F0-BC66-2E4D-87E7-B0E28A371D84}"/>
-    <hyperlink ref="A173" r:id="rId149" xr:uid="{27477E18-B935-924C-BC02-859CC87CAB41}"/>
-    <hyperlink ref="A174" r:id="rId150" xr:uid="{3ADBEEB6-EFB7-E243-ACBB-56FEE1811FEF}"/>
-    <hyperlink ref="A175" r:id="rId151" xr:uid="{7F1FDA90-4A96-9F40-8BB1-D2EF85641158}"/>
-    <hyperlink ref="A176" r:id="rId152" xr:uid="{32E84692-CD55-3844-9292-ACFF6686B376}"/>
-    <hyperlink ref="A177" r:id="rId153" xr:uid="{596FCCF5-B031-CC46-9ED5-835E384BE5FD}"/>
-    <hyperlink ref="A178" r:id="rId154" xr:uid="{B5D19699-1F3A-7242-A745-86E454B0D845}"/>
-    <hyperlink ref="A179" r:id="rId155" xr:uid="{2E73D1C1-9AEF-C94C-B874-0519870D3868}"/>
-    <hyperlink ref="A180" r:id="rId156" xr:uid="{C03786D8-8792-8B4E-90E1-6CA292548549}"/>
-    <hyperlink ref="A181" r:id="rId157" xr:uid="{0163A355-8051-7A4D-8BA2-36708B2F6029}"/>
-    <hyperlink ref="A182" r:id="rId158" xr:uid="{03B74534-943D-B24C-8853-50F03F9A1E60}"/>
-    <hyperlink ref="A183" r:id="rId159" xr:uid="{58701074-6D56-4C47-9EE9-A38B077D7818}"/>
-    <hyperlink ref="A184" r:id="rId160" xr:uid="{BFECF765-344C-8442-AA89-EC4470880EE6}"/>
-    <hyperlink ref="A185" r:id="rId161" xr:uid="{04A634DB-DC1D-5C42-8E3B-6752A3C881BC}"/>
-    <hyperlink ref="A186" r:id="rId162" xr:uid="{DAE44825-4CD2-4345-870B-4BA7D34E48F1}"/>
-    <hyperlink ref="A187" r:id="rId163" xr:uid="{28E0E49E-1ABD-B546-AA08-B5D7E7220CFC}"/>
-    <hyperlink ref="A188" r:id="rId164" xr:uid="{41F3FBF2-5778-224C-990F-7AD49F845C96}"/>
-    <hyperlink ref="A189" r:id="rId165" xr:uid="{F841D116-3E4B-F54C-980F-05A7E4035D63}"/>
-    <hyperlink ref="A190" r:id="rId166" xr:uid="{049DD4BA-B0E6-1742-A936-91C341974B8F}"/>
-    <hyperlink ref="A191" r:id="rId167" xr:uid="{8BDD55F9-A149-224F-99F2-C9D0B041AA04}"/>
-    <hyperlink ref="A192" r:id="rId168" xr:uid="{7F205625-909A-7D49-B2B3-86EC96B556A0}"/>
-    <hyperlink ref="A193" r:id="rId169" xr:uid="{CB8FE0B4-A7AA-0F46-87AE-4ED10259836C}"/>
-    <hyperlink ref="A194" r:id="rId170" xr:uid="{9AC0C54A-8461-0341-89C0-F8291F45612E}"/>
-    <hyperlink ref="A195" r:id="rId171" xr:uid="{17BED662-BCFE-5D4E-BA22-2E2B1C3A8490}"/>
-    <hyperlink ref="A196" r:id="rId172" xr:uid="{9F3201E7-5216-B840-9B9F-7AB8A5D2E48E}"/>
-    <hyperlink ref="A197" r:id="rId173" xr:uid="{825620ED-A615-1045-AA78-E8C1B54862A7}"/>
-    <hyperlink ref="A198" r:id="rId174" xr:uid="{74B56C06-0E9F-0646-8DED-FB6F5DA540A3}"/>
-    <hyperlink ref="A199" r:id="rId175" xr:uid="{5C6E8E05-8FE2-A141-A3D6-7A3AF2A8BC4A}"/>
-    <hyperlink ref="A200" r:id="rId176" xr:uid="{448FA0EE-EE2D-944D-8151-11FF21B9256F}"/>
-    <hyperlink ref="A201" r:id="rId177" xr:uid="{68059C33-3C3F-6143-B20F-5925D4EC1F04}"/>
-    <hyperlink ref="A202" r:id="rId178" xr:uid="{6AC90D6B-BC5A-6E4C-B70F-107AC5A19EC2}"/>
-    <hyperlink ref="A204" r:id="rId179" xr:uid="{465053AC-6DDE-3344-B4E5-F931B6F8D099}"/>
-    <hyperlink ref="A205" r:id="rId180" xr:uid="{E22BFE85-CD2B-B04D-BD52-779C5C61C900}"/>
-    <hyperlink ref="A206" r:id="rId181" xr:uid="{23F31B84-5EFA-DD40-BF3E-714AFB0EE639}"/>
-    <hyperlink ref="A115" r:id="rId182" xr:uid="{591EB6DD-D4AB-684D-90D8-D3D476778C30}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{A484148B-00A3-AE4A-B4DE-4E397E832913}"/>
+    <hyperlink ref="A33" r:id="rId2" xr:uid="{AA7AB30D-D0B7-7A46-ABD5-0812CAC40672}"/>
+    <hyperlink ref="A42" r:id="rId3" xr:uid="{85A7DC29-D874-6B41-AF77-CC873747B6A7}"/>
+    <hyperlink ref="A43" r:id="rId4" xr:uid="{240AD51E-8093-F14D-A786-D628FE505D1B}"/>
+    <hyperlink ref="A44" r:id="rId5" xr:uid="{8EFEF73B-0079-A64E-92E6-26E44F625D19}"/>
+    <hyperlink ref="A45" r:id="rId6" xr:uid="{5D9E7160-E900-4A41-A654-EAB13107B176}"/>
+    <hyperlink ref="A46" r:id="rId7" xr:uid="{E8DEB86D-4875-5246-9D9D-954FAE3551B0}"/>
+    <hyperlink ref="A48" r:id="rId8" xr:uid="{4D1AB3DD-AF47-2347-B176-45A9382CD058}"/>
+    <hyperlink ref="A50" r:id="rId9" xr:uid="{D77CA028-C179-1040-B509-6602195A977F}"/>
+    <hyperlink ref="A51" r:id="rId10" xr:uid="{10A8433E-6AF0-F445-9A65-354FA00A9AF6}"/>
+    <hyperlink ref="A52" r:id="rId11" xr:uid="{04C71248-6A70-9346-8091-D6ECBB5D007B}"/>
+    <hyperlink ref="A53" r:id="rId12" xr:uid="{45951C7B-2DD1-854D-B4AB-9776FCC49A38}"/>
+    <hyperlink ref="A54" r:id="rId13" xr:uid="{D7306D50-621D-1747-B8F5-F8BC3F51DB3C}"/>
+    <hyperlink ref="A56" r:id="rId14" xr:uid="{CB561A46-F0AC-9743-B852-C80EAF10F15B}"/>
+    <hyperlink ref="A55" r:id="rId15" xr:uid="{9FBA59B8-FA8E-104E-A9D5-DE3B3576AE01}"/>
+    <hyperlink ref="A57" r:id="rId16" xr:uid="{897BC4E0-D9A8-5C49-8E17-51D1DC3F6E47}"/>
+    <hyperlink ref="A59" r:id="rId17" xr:uid="{4832FEA3-65E0-0C46-8C58-B18258477569}"/>
+    <hyperlink ref="A60" r:id="rId18" xr:uid="{4129A3BB-5EE1-5E4E-A229-E2332E380FF6}"/>
+    <hyperlink ref="A77" r:id="rId19" xr:uid="{0F243E90-B758-0343-AB90-110B2602F248}"/>
+    <hyperlink ref="A78" r:id="rId20" xr:uid="{5433CA35-7F82-4A4B-864C-89E71594831F}"/>
+    <hyperlink ref="A79" r:id="rId21" xr:uid="{E2BDD4A7-FCDD-0F40-8530-9D89C6AD97C9}"/>
+    <hyperlink ref="A81" r:id="rId22" xr:uid="{751F00B2-0070-E64A-BE39-0D72F8DEE703}"/>
+    <hyperlink ref="A82" r:id="rId23" xr:uid="{82D2C200-5F3F-EC44-9398-BC8FBADAE955}"/>
+    <hyperlink ref="A83" r:id="rId24" xr:uid="{5B59C115-2377-0F4E-95F9-37CB9CF29618}"/>
+    <hyperlink ref="A84" r:id="rId25" xr:uid="{331809BE-59AC-3946-889A-0B931FA71AD3}"/>
+    <hyperlink ref="A107" r:id="rId26" xr:uid="{22DFF10B-BF69-D648-B3DD-266932F718F4}"/>
+    <hyperlink ref="A106" r:id="rId27" xr:uid="{3F7FFBB9-843B-1E4F-9F92-624BE8F77BA0}"/>
+    <hyperlink ref="A104" r:id="rId28" xr:uid="{5E22258D-A1FF-9046-A417-58E68D2E483E}"/>
+    <hyperlink ref="A105" r:id="rId29" xr:uid="{97D2087E-E553-694D-8D63-D234F4F9FB76}"/>
+    <hyperlink ref="A103" r:id="rId30" xr:uid="{78BEBB90-49D3-3C4E-B4E1-A20318CF84AC}"/>
+    <hyperlink ref="A102" r:id="rId31" xr:uid="{36BEC5F6-82C8-A04A-82B9-3EFF3F6B8F98}"/>
+    <hyperlink ref="A101" r:id="rId32" xr:uid="{8CE5FDF4-E577-B344-902E-70E06AF51E61}"/>
+    <hyperlink ref="A99" r:id="rId33" xr:uid="{E6286752-4919-E145-945C-A64698088ECE}"/>
+    <hyperlink ref="A98" r:id="rId34" xr:uid="{2EDBF823-9A29-AD4E-A0E0-94302E207747}"/>
+    <hyperlink ref="A97" r:id="rId35" xr:uid="{52C12681-BAFB-A143-9515-DA6AF964BEC7}"/>
+    <hyperlink ref="A96" r:id="rId36" xr:uid="{F04E0B74-41E4-9E4C-82E0-DED5F2EF08F5}"/>
+    <hyperlink ref="A95" r:id="rId37" xr:uid="{47F2A5FE-494A-7F4B-B7E5-197821379B13}"/>
+    <hyperlink ref="A94" r:id="rId38" xr:uid="{23009A7D-603B-9C42-A201-06085A02B182}"/>
+    <hyperlink ref="A93" r:id="rId39" xr:uid="{DE281A44-A3A8-8D41-B1AC-AF32FBB0C796}"/>
+    <hyperlink ref="A92" r:id="rId40" xr:uid="{2998EB06-2E35-A146-9467-A7A705910DF3}"/>
+    <hyperlink ref="A91" r:id="rId41" xr:uid="{E4518843-57E8-7748-BAEC-35F7807A9FA7}"/>
+    <hyperlink ref="A90" r:id="rId42" xr:uid="{9DAFC67C-9901-6744-AA17-DD8E6FACFB22}"/>
+    <hyperlink ref="A89" r:id="rId43" xr:uid="{DE339DB5-8760-0349-B032-2DC292FBABE4}"/>
+    <hyperlink ref="A88" r:id="rId44" xr:uid="{1E10560F-12D6-C449-8B9F-9160766A7314}"/>
+    <hyperlink ref="A87" r:id="rId45" xr:uid="{433ECCD3-1131-704A-BA51-A40394184711}"/>
+    <hyperlink ref="A86" r:id="rId46" xr:uid="{3EEEEF9F-D2B6-DF42-B355-08DD28887F66}"/>
+    <hyperlink ref="A85" r:id="rId47" xr:uid="{F65F38AC-9CFF-EA40-AD5A-67785BD1C2F7}"/>
+    <hyperlink ref="A7" r:id="rId48" xr:uid="{E4B6C681-4564-394B-9C43-4C28103449CA}"/>
+    <hyperlink ref="A1" r:id="rId49" xr:uid="{F8B5446F-A603-854F-9F9B-922186CA6D05}"/>
+    <hyperlink ref="A2" r:id="rId50" xr:uid="{7215D826-0E4A-1042-87DD-EBB8D949E79D}"/>
+    <hyperlink ref="A3" r:id="rId51" xr:uid="{2BAB4C5C-2DB4-6D4C-BB00-E1C711D67FF5}"/>
+    <hyperlink ref="A4" r:id="rId52" xr:uid="{4B1F5DC0-8231-A74C-931D-62E072E37F07}"/>
+    <hyperlink ref="A5" r:id="rId53" xr:uid="{FE67A084-E1C6-CB4F-82C5-D6F3DB8A7044}"/>
+    <hyperlink ref="A6" r:id="rId54" xr:uid="{82D7312F-39C9-D543-993A-5AFECEE9D7CC}"/>
+    <hyperlink ref="A8" r:id="rId55" xr:uid="{F0C435BD-ADCC-3948-9E8E-C44C07D0B579}"/>
+    <hyperlink ref="A9" r:id="rId56" xr:uid="{F28E3F24-9F09-F145-857A-F2B71B49ECB1}"/>
+    <hyperlink ref="A10" r:id="rId57" xr:uid="{4E108C47-E061-8748-951F-8B76370CCD1B}"/>
+    <hyperlink ref="A100" r:id="rId58" xr:uid="{5E75531E-3D28-874B-B1DA-01BEEF727A7A}"/>
+    <hyperlink ref="A80" r:id="rId59" xr:uid="{7E88BCBC-759A-4144-936E-7D26F99C422A}"/>
+    <hyperlink ref="A21" r:id="rId60" xr:uid="{013713CE-3E5F-044C-9E71-A0093E4DA5F5}"/>
+    <hyperlink ref="A143" r:id="rId61" xr:uid="{3676F213-EF55-0E4B-825F-2DF220030F61}"/>
+    <hyperlink ref="A108" r:id="rId62" xr:uid="{730B633A-18AC-F642-AE3A-9DBA1D6427FE}"/>
+    <hyperlink ref="A109" r:id="rId63" xr:uid="{103D85A5-5F38-9147-A557-B39A0015CACA}"/>
+    <hyperlink ref="A111" r:id="rId64" xr:uid="{6E81E617-4446-4541-94FD-3DCAA55381CB}"/>
+    <hyperlink ref="A112" r:id="rId65" xr:uid="{9F7DAF81-EB61-444A-8DA0-1DCE59DA3BC6}"/>
+    <hyperlink ref="A114" r:id="rId66" xr:uid="{3CDBBE24-958F-1443-99CF-0691899E60B5}"/>
+    <hyperlink ref="A115" r:id="rId67" xr:uid="{A9B4C39B-7F08-5241-9642-4A8355B475DB}"/>
+    <hyperlink ref="A116" r:id="rId68" xr:uid="{57D88A76-FE6C-2B46-B35E-20716D7DE5C3}"/>
+    <hyperlink ref="A117" r:id="rId69" xr:uid="{99A817C8-9F71-7D48-BB05-DA89BF91D19B}"/>
+    <hyperlink ref="A118" r:id="rId70" xr:uid="{D05458A4-6E47-BA44-90A1-CD451E380CE0}"/>
+    <hyperlink ref="A119" r:id="rId71" xr:uid="{0366141C-1B12-5546-BC50-25D7A644ADE3}"/>
+    <hyperlink ref="A120" r:id="rId72" xr:uid="{AD18AC16-BC85-734D-9554-65EBBD851E57}"/>
+    <hyperlink ref="A122" r:id="rId73" xr:uid="{2BEA5E50-3F60-754E-93DC-78EC30D89EC0}"/>
+    <hyperlink ref="A124" r:id="rId74" xr:uid="{09E15414-E6B9-3B45-99B8-D0E16D52BC1F}"/>
+    <hyperlink ref="A125" r:id="rId75" xr:uid="{54D359D7-7909-D346-9ABF-6E77803F68BD}"/>
+    <hyperlink ref="A126" r:id="rId76" xr:uid="{B39C6803-50CC-B749-A2A8-9F39E4966099}"/>
+    <hyperlink ref="A129" r:id="rId77" xr:uid="{81BD6E36-9D70-1148-BA3F-8C7DD15C82D0}"/>
+    <hyperlink ref="A130" r:id="rId78" xr:uid="{26B9CADA-6FC5-DB4C-AADC-35BBF5348866}"/>
+    <hyperlink ref="A131" r:id="rId79" xr:uid="{D5D62ED0-211B-B745-A2C7-B22CB8A8E778}"/>
+    <hyperlink ref="A132" r:id="rId80" xr:uid="{D72552FF-3F5D-1142-AF44-B4947E9E652B}"/>
+    <hyperlink ref="A133" r:id="rId81" xr:uid="{C5641B36-C07E-FD4C-B9E3-08F5462DA565}"/>
+    <hyperlink ref="A135" r:id="rId82" xr:uid="{BB8BC645-D1A5-2B43-BA5B-C0164C2C27B5}"/>
+    <hyperlink ref="A136" r:id="rId83" xr:uid="{28D67438-07EA-2B43-A0B5-07A29F3F736C}"/>
+    <hyperlink ref="A137" r:id="rId84" xr:uid="{7F2D9B6A-4A81-E944-B5C9-567AB84638DC}"/>
+    <hyperlink ref="A138" r:id="rId85" xr:uid="{1797579D-05B3-934E-A6B1-BA0024BBBE3E}"/>
+    <hyperlink ref="A139" r:id="rId86" xr:uid="{3551E8D4-001B-BA4D-80BF-ACF987023AF1}"/>
+    <hyperlink ref="A140" r:id="rId87" xr:uid="{7A36E192-AD15-F143-A3EF-B5AA767F5D39}"/>
+    <hyperlink ref="A142" r:id="rId88" xr:uid="{A038F8FE-C45A-1043-AF64-DA6DB0B49A97}"/>
+    <hyperlink ref="A144" r:id="rId89" xr:uid="{262A7D0B-50D4-1B42-9EDC-5529412298E3}"/>
+    <hyperlink ref="A145" r:id="rId90" xr:uid="{5F5C75B1-84A5-214B-BFAA-C1DE4A9A0233}"/>
+    <hyperlink ref="A146" r:id="rId91" xr:uid="{65E18B9B-D914-A447-A862-E86442B7A989}"/>
+    <hyperlink ref="A147" r:id="rId92" xr:uid="{01A46E13-89FE-9E4C-B0F1-3BD4C7AA7E17}"/>
+    <hyperlink ref="A148" r:id="rId93" xr:uid="{F4E36F66-7B9A-E146-B36E-A2FB0660D116}"/>
+    <hyperlink ref="A149" r:id="rId94" xr:uid="{CA821C08-16A9-9349-ABB8-5AE7931AC4AD}"/>
+    <hyperlink ref="A150" r:id="rId95" xr:uid="{49D3C8E0-7288-2F4F-B9E3-5EBA16BB05B2}"/>
+    <hyperlink ref="A151" r:id="rId96" xr:uid="{462CF2EE-E931-0449-955B-265487D908EB}"/>
+    <hyperlink ref="A152" r:id="rId97" xr:uid="{42943F8F-0C06-2345-A5A4-49A2F3FCDBF5}"/>
+    <hyperlink ref="A176" r:id="rId98" xr:uid="{21ED72F1-271B-204E-958F-9F277E934FE5}"/>
+    <hyperlink ref="A175" r:id="rId99" xr:uid="{64B7A2ED-97B8-5A43-833B-8C40ABD447C2}"/>
+    <hyperlink ref="A174" r:id="rId100" xr:uid="{ED1607ED-6A90-404F-9390-B1BB6D991BAB}"/>
+    <hyperlink ref="A173" r:id="rId101" xr:uid="{32943718-85A9-F74B-B3C0-584B64EECEE7}"/>
+    <hyperlink ref="A170" r:id="rId102" xr:uid="{EA75772D-1A26-F242-BBB0-85F305DD502F}"/>
+    <hyperlink ref="A169" r:id="rId103" xr:uid="{B6A88B28-AE17-0B4A-8777-06E112557E8B}"/>
+    <hyperlink ref="A168" r:id="rId104" xr:uid="{8D48696C-FCBD-274D-ABA3-47E8DFEB7093}"/>
+    <hyperlink ref="A167" r:id="rId105" xr:uid="{40D80715-6E72-AA49-B14E-3611EC1CC385}"/>
+    <hyperlink ref="A166" r:id="rId106" xr:uid="{CBDEA303-5D31-B14A-9297-7429ADAAE3E1}"/>
+    <hyperlink ref="A162" r:id="rId107" xr:uid="{7E4E8E06-8D1E-7A49-9007-CAF78DD9823D}"/>
+    <hyperlink ref="A161" r:id="rId108" xr:uid="{E72E38A5-6385-924A-BF48-A6676909BECC}"/>
+    <hyperlink ref="A160" r:id="rId109" xr:uid="{7678AD52-5DEE-414F-8A04-F2B50D238FC2}"/>
+    <hyperlink ref="A157" r:id="rId110" xr:uid="{BB8C4F80-D82E-AC47-BCA6-1A694F81FAC5}"/>
+    <hyperlink ref="A156" r:id="rId111" xr:uid="{C3896AFD-E9A2-7743-BA15-82CABE3463C9}"/>
+    <hyperlink ref="A155" r:id="rId112" xr:uid="{C7B6678C-D2F9-A840-8868-E6F819888D6A}"/>
+    <hyperlink ref="A154" r:id="rId113" xr:uid="{8C2914BF-B4F1-6F4F-B012-72427BB6A7C6}"/>
+    <hyperlink ref="A153" r:id="rId114" xr:uid="{4D2B252D-55BD-9F4D-81FD-08ED42FEDC88}"/>
+    <hyperlink ref="A159" r:id="rId115" xr:uid="{E92ACFB2-D53D-204E-A0D9-39C5B3C37D63}"/>
+    <hyperlink ref="A164" r:id="rId116" xr:uid="{08E247DC-2C68-1746-A02A-F202A6DC1D8E}"/>
+    <hyperlink ref="A165" r:id="rId117" xr:uid="{6E4C206A-B63C-1645-8E19-8BD9160D9974}"/>
+    <hyperlink ref="A163" r:id="rId118" xr:uid="{59E5DB91-1C26-3547-A6EE-F96E71570CEC}"/>
+    <hyperlink ref="A177" r:id="rId119" xr:uid="{4F4E0787-743D-E14A-BE09-C7F27E8AFFB7}"/>
+    <hyperlink ref="A178" r:id="rId120" xr:uid="{4CC74542-8872-4B42-AAE7-12F5A65DFBD5}"/>
+    <hyperlink ref="A179" r:id="rId121" xr:uid="{92014D28-0E3F-9F42-9BB8-392D7D3577E6}"/>
+    <hyperlink ref="A180" r:id="rId122" xr:uid="{CE102059-8815-C246-AEB4-9C9349B1742D}"/>
+    <hyperlink ref="A181" r:id="rId123" xr:uid="{924F2F77-47A6-FF49-BAF1-6188F4E266D4}"/>
+    <hyperlink ref="A182" r:id="rId124" xr:uid="{F8AE93F5-BEBE-6D47-AD02-533F6FE68968}"/>
+    <hyperlink ref="A183" r:id="rId125" xr:uid="{69924994-FFAE-2E43-9BE5-FEF7921C839B}"/>
+    <hyperlink ref="A184" r:id="rId126" xr:uid="{7D681D19-4BFC-EC4D-B521-04EF00ED8B9D}"/>
+    <hyperlink ref="A185" r:id="rId127" xr:uid="{EC8F1C0D-6FC5-A644-A069-BC86260521A5}"/>
+    <hyperlink ref="A186" r:id="rId128" xr:uid="{33710493-0DF3-3E45-8B48-C548409DDCE9}"/>
+    <hyperlink ref="A187" r:id="rId129" xr:uid="{C08189FD-6D41-5F49-BD70-A6E8DA92B933}"/>
+    <hyperlink ref="A188" r:id="rId130" xr:uid="{DFE4A149-CB94-0A4C-811C-924E0FD8994F}"/>
+    <hyperlink ref="A189" r:id="rId131" xr:uid="{0EE2319C-F4FB-D34F-AEFA-59993643B26D}"/>
+    <hyperlink ref="A190" r:id="rId132" xr:uid="{C025458E-121E-3D42-8A02-7291B41A7C5F}"/>
+    <hyperlink ref="A191" r:id="rId133" xr:uid="{7968139E-808C-654E-9C1B-F580B6DD70F5}"/>
+    <hyperlink ref="A192" r:id="rId134" xr:uid="{B80D992F-20CD-924C-ADCC-C48805D195D3}"/>
+    <hyperlink ref="A193" r:id="rId135" xr:uid="{932C99A9-F75A-674A-BDA9-3BCB63739D0D}"/>
+    <hyperlink ref="A194" r:id="rId136" xr:uid="{564EB188-F9B4-3E48-A75D-B5B82D511085}"/>
+    <hyperlink ref="A195" r:id="rId137" xr:uid="{31C19E67-7F02-DB45-9783-E7271F18191D}"/>
+    <hyperlink ref="A196" r:id="rId138" xr:uid="{D2DF98D6-4092-974B-AD59-B293854071AE}"/>
+    <hyperlink ref="A197" r:id="rId139" xr:uid="{D2255E37-378B-FA40-AEAE-D053BAEC5F29}"/>
+    <hyperlink ref="A198" r:id="rId140" xr:uid="{1402B984-A9D3-814F-B34B-4980E97A8229}"/>
+    <hyperlink ref="A199" r:id="rId141" xr:uid="{882AB2F7-6124-BF43-8C82-242E98168E68}"/>
+    <hyperlink ref="A200" r:id="rId142" xr:uid="{049868DC-06D5-1743-9D85-8D9EBC8F594E}"/>
+    <hyperlink ref="A201" r:id="rId143" xr:uid="{FB3F9961-3FEA-F64F-BBAE-CDFF98677185}"/>
+    <hyperlink ref="A202" r:id="rId144" xr:uid="{4799D418-8394-3B4F-A541-F5AAFC18AC28}"/>
+    <hyperlink ref="A203" r:id="rId145" xr:uid="{9FC03270-35C0-E241-BCC4-F02B720637CF}"/>
+    <hyperlink ref="A204" r:id="rId146" xr:uid="{C673374C-6E74-B244-BD3E-F69EB5E7E0C2}"/>
+    <hyperlink ref="A205" r:id="rId147" xr:uid="{9306ABA0-8BEE-EB4A-B906-EB57E35379C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4111,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A15216-0BFE-6941-B605-6952A37E25E1}">
   <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4512,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D9C777-147D-C548-BEB9-A41832929F76}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4597,7 +4865,7 @@
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="4" t="s">
-        <v>582</v>
+        <v>379</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>135</v>
@@ -4609,61 +4877,61 @@
     </row>
     <row r="8" spans="1:4" ht="18">
       <c r="A8" s="4" t="s">
-        <v>572</v>
+        <v>369</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>551</v>
+        <v>348</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="4" t="s">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>558</v>
+        <v>355</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="4" t="s">
-        <v>557</v>
+        <v>354</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="18">
       <c r="A11" s="4" t="s">
-        <v>560</v>
+        <v>357</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>559</v>
+        <v>356</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="18">
       <c r="A12" s="4" t="s">
-        <v>584</v>
+        <v>381</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>561</v>
+        <v>358</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -4672,10 +4940,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>562</v>
+        <v>359</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>563</v>
+        <v>360</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -4687,7 +4955,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>564</v>
+        <v>361</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -4696,16 +4964,16 @@
         <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>565</v>
+        <v>362</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>566</v>
+        <v>363</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="3" t="s">
-        <v>581</v>
+        <v>378</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>81</v>
@@ -4723,7 +4991,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>567</v>
+        <v>364</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -4735,7 +5003,7 @@
         <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>568</v>
+        <v>365</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4747,7 +5015,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -4759,7 +5027,7 @@
         <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>569</v>
+        <v>366</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -4771,7 +5039,7 @@
         <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>570</v>
+        <v>367</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -4783,7 +5051,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>571</v>
+        <v>368</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -4795,7 +5063,7 @@
         <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>579</v>
+        <v>376</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -4807,7 +5075,7 @@
         <v>120</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>578</v>
+        <v>375</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -4819,7 +5087,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>575</v>
+        <v>372</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -4837,49 +5105,49 @@
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="3" t="s">
-        <v>573</v>
+        <v>370</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>556</v>
+        <v>353</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="3" t="s">
-        <v>574</v>
+        <v>371</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>556</v>
+        <v>353</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="3" t="s">
-        <v>554</v>
+        <v>351</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>555</v>
+        <v>352</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="3" t="s">
-        <v>554</v>
+        <v>351</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>553</v>
+        <v>350</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -4933,7 +5201,7 @@
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35" s="3" t="s">
-        <v>552</v>
+        <v>349</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>77</v>
@@ -4957,7 +5225,7 @@
     </row>
     <row r="37" spans="1:4" ht="18">
       <c r="A37" s="3" t="s">
-        <v>577</v>
+        <v>374</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
@@ -4993,7 +5261,7 @@
     </row>
     <row r="40" spans="1:4" ht="18">
       <c r="A40" s="3" t="s">
-        <v>576</v>
+        <v>373</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
@@ -5173,7 +5441,7 @@
     </row>
     <row r="55" spans="1:4" ht="18">
       <c r="A55" s="3" t="s">
-        <v>550</v>
+        <v>347</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>76</v>
@@ -5208,4 +5476,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F273D360-FABE-294E-A398-6CFF8C76C152}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2805AC1-2740-3640-9BC3-04638C390435}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>